--- a/template_spreadsheet.xlsx
+++ b/template_spreadsheet.xlsx
@@ -17,267 +17,6 @@
     <author>Socorro Dominguez</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-All belong to:
-ndb.variableunits.variableunits</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not sure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not sure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not sure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not sure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not sure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A28" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-In SchemaSpy, this does not seem to exist, it is just linked to the ndb.sites.geog via sited</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F32" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not sure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F33" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not sure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F34" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not sure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A36" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not available in SpySchema</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C37" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not sure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F40" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Make sure that ndb.chronologies information is Rowwise false</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F41" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Make sure that ndb.chronologies information is Rowwise false</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F42" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Make sure that ndb.chronologies information is Rowwise false</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F49" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not sure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A50" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not on SchemaSpy - clarify how does this work with Pb210</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F54" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not sure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A55" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t xml:space="preserve">Socorro Dominguez:
-Link this column to ndb.contacts.familyname; then, extract ndb.contacts.contactid to pass to ndb.datasetpis.contactid </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A56" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Link this column to ndb.contacts.familyname; then, extract ndb.contacts.contactid to pass to ndb.sampleanalysts.contactid</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="F59" authorId="0">
       <text>
         <r>
@@ -291,51 +30,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="F65" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Clarify again why this is OK to be NULL many times; how is it not the same value as ndb.data.value?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A66" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Using same column as ndb.chroncontrols.age</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F66" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-How is this different from ndb.chroncontrols.age</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
   <si>
     <t>Column</t>
   </si>
@@ -361,7 +61,7 @@
     <t>ndb.datasets.datasetname</t>
   </si>
   <si>
-    <t>210Pb</t>
+    <t>ostracode</t>
   </si>
   <si>
     <t>datasettypeid</t>
@@ -370,18 +70,12 @@
     <t>ndb.datasettypes.datasettypeid</t>
   </si>
   <si>
-    <t>Geochronologic</t>
-  </si>
-  <si>
     <t>databaseid</t>
   </si>
   <si>
     <t>ndb.datasetdatabases.databaseid</t>
   </si>
   <si>
-    <t>Placeholder</t>
-  </si>
-  <si>
     <t>labnumber</t>
   </si>
   <si>
@@ -421,16 +115,19 @@
     <t>UncertaintyBasis</t>
   </si>
   <si>
-    <t>Site.name</t>
+    <t>Site name</t>
   </si>
   <si>
     <t>ndb.sites.sitename</t>
   </si>
   <si>
+    <t>This is spatial overlay/sitename</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
-    <t>Site ID</t>
+    <t>—NA—</t>
   </si>
   <si>
     <t>ndb.sites.siteid</t>
@@ -439,7 +136,7 @@
     <t>integer</t>
   </si>
   <si>
-    <t>Geographic.coordinates</t>
+    <t>geodeticDatum</t>
   </si>
   <si>
     <t>ndb.sites.geog</t>
@@ -448,18 +145,27 @@
     <t>coordinates (lat,long)</t>
   </si>
   <si>
-    <t>—NA—</t>
+    <t>decimalLatitude</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>decimalLongitude</t>
+  </si>
+  <si>
+    <t>verbatimElevation</t>
   </si>
   <si>
     <t>ndb.sites.altitude</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>ndb.sites.area</t>
   </si>
   <si>
+    <t>verbatimLocality</t>
+  </si>
+  <si>
     <t>ndb.sites.sitedescription</t>
   </si>
   <si>
@@ -475,9 +181,6 @@
     <t>ndb.sites.recdatemodified</t>
   </si>
   <si>
-    <t>Core.number.or.code</t>
-  </si>
-  <si>
     <t>ndb.collectionunits.core</t>
   </si>
   <si>
@@ -496,7 +199,7 @@
     <t>ndb.collectionunits.collunitname</t>
   </si>
   <si>
-    <t>Date.of.core.collection</t>
+    <t>eventDate</t>
   </si>
   <si>
     <t>ndb.collectionunits.colldate</t>
@@ -532,36 +235,21 @@
     <t>ndb.collectionunits.slopeangle</t>
   </si>
   <si>
-    <t>Coordinate.precision</t>
-  </si>
-  <si>
     <t>ndb.collectionunits.location</t>
   </si>
   <si>
-    <t>[‘core-site','GPS','core-site approximate','lake center’]</t>
-  </si>
-  <si>
     <t>ndb.collectionunits.notes</t>
   </si>
   <si>
-    <t>Site.coordinates</t>
-  </si>
-  <si>
     <t>ndb.collectionunits.geog</t>
   </si>
   <si>
     <t>ndb.analysisunits.analysisunitname</t>
   </si>
   <si>
-    <t>Depth</t>
-  </si>
-  <si>
     <t>ndb.analysisunits.depth</t>
   </si>
   <si>
-    <t>Thickness</t>
-  </si>
-  <si>
     <t>ndb.analysisunits.thickness</t>
   </si>
   <si>
@@ -580,21 +268,12 @@
     <t>ndb.analysisunits.notes</t>
   </si>
   <si>
-    <t>Depth.position</t>
-  </si>
-  <si>
     <t>ndb.analysisunits.position</t>
   </si>
   <si>
-    <t>[‘Top', 'Mid', ‘Bottom']</t>
-  </si>
-  <si>
     <t>ndb.chronologies.agetypeid</t>
   </si>
   <si>
-    <t>Modeler</t>
-  </si>
-  <si>
     <t>ndb.chronologies.contactid</t>
   </si>
   <si>
@@ -607,72 +286,27 @@
     <t>ndb.chronologies.dateprepared</t>
   </si>
   <si>
-    <t>X210.LeadModel</t>
-  </si>
-  <si>
-    <t>ndb.chronologies.agemodel</t>
-  </si>
-  <si>
-    <t>[‘CRS', 'CIC', 'CF:CS', 'PLUM', ‘other']</t>
-  </si>
-  <si>
-    <t>X210.Lead.Model.Notes</t>
-  </si>
-  <si>
-    <t>ndb.chronologies.notes</t>
-  </si>
-  <si>
     <t>ndb.chroncontrols.depth</t>
   </si>
   <si>
-    <t>Use same column as ndb.analysisunits ?</t>
-  </si>
-  <si>
     <t>ndb.chroncontrols.thickness</t>
   </si>
   <si>
     <t>ndb.chroncontrols.position</t>
   </si>
   <si>
-    <t>X210Pb.Date</t>
-  </si>
-  <si>
     <t>ndb.chroncontrols.age</t>
   </si>
   <si>
-    <t>Use same column as sampleages</t>
-  </si>
-  <si>
-    <t>X210Pb.Date.Units</t>
-  </si>
-  <si>
-    <t>Error..210Pb.Date.</t>
-  </si>
-  <si>
-    <t>Error..210Pb.Date..1SD.Units</t>
-  </si>
-  <si>
     <t>ndb.chroncontrols.notes</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>ndb.geochroncontrols.geochronid</t>
   </si>
   <si>
-    <t>Assigned.137Cs.Date</t>
-  </si>
-  <si>
     <t>ndb.geochroncontrols.age</t>
   </si>
   <si>
-    <t>137Cs</t>
-  </si>
-  <si>
-    <t>Assigned.137Cs.Date.Units</t>
-  </si>
-  <si>
     <t>ndb.datasets.datasettypeid</t>
   </si>
   <si>
@@ -685,27 +319,27 @@
     <t>[‘fixed’]</t>
   </si>
   <si>
-    <t>Pb210</t>
-  </si>
-  <si>
-    <t>Principal.Investigator.s.</t>
+    <t>Ostracodes</t>
   </si>
   <si>
     <t>ndb.datasetpis.contactid</t>
   </si>
   <si>
-    <t>Analyst</t>
-  </si>
-  <si>
     <t>ndb.sampleanalysts.contactid</t>
   </si>
   <si>
     <t>ndb.constituentdatabases.database</t>
   </si>
   <si>
+    <t>Original sample number</t>
+  </si>
+  <si>
     <t>ndb.samples.samplename</t>
   </si>
   <si>
+    <t>This is a unique physical sample identifier</t>
+  </si>
+  <si>
     <t>ndb.samples.analysisdate</t>
   </si>
   <si>
@@ -730,7 +364,16 @@
     <t>ndb.data.variablecontextid</t>
   </si>
   <si>
-    <t>Dry.Density</t>
+    <t>scientificName</t>
+  </si>
+  <si>
+    <t>ndb.data.values</t>
+  </si>
+  <si>
+    <t>This is a single Presence/absence value, we have to check to see if there's not information in this field</t>
+  </si>
+  <si>
+    <t>organismQuantity</t>
   </si>
   <si>
     <t>ndb.data.value</t>
@@ -739,187 +382,190 @@
     <t>&gt; 0</t>
   </si>
   <si>
-    <t>bulk density</t>
-  </si>
-  <si>
-    <t>Dry.Density.Units</t>
-  </si>
-  <si>
-    <t>Cumulative.dry.mass</t>
-  </si>
-  <si>
-    <t>cumulative dry mass</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>Cumulative.dry.mass.units</t>
-  </si>
-  <si>
-    <t>Total.210Pb.Alpha..synonym.Total.210Po.</t>
-  </si>
-  <si>
-    <t>210Pb/210Po</t>
-  </si>
-  <si>
-    <t>Total.210Pb.Alpha..synonym.Total.210Po..Units</t>
-  </si>
-  <si>
-    <t>Error..total.210Pb.alpha.</t>
-  </si>
-  <si>
-    <t>Error..total.210Pb.alpha..units</t>
-  </si>
-  <si>
-    <t>Total.210Pb.Gamma</t>
-  </si>
-  <si>
-    <t>Total.210Pb.Gamma.Units</t>
-  </si>
-  <si>
-    <t>Error..total.210Pb.Gamma.</t>
-  </si>
-  <si>
-    <t>Error..total.210Pb.Gamma..Units</t>
-  </si>
-  <si>
-    <t>X214Pb</t>
-  </si>
-  <si>
-    <t>214Pb</t>
-  </si>
-  <si>
-    <t>X214Pb.Units</t>
-  </si>
-  <si>
-    <t>Error..214Pb.</t>
-  </si>
-  <si>
-    <t>Error..214Pb..Units</t>
-  </si>
-  <si>
-    <t>X214Bi</t>
-  </si>
-  <si>
-    <t>214Bi</t>
-  </si>
-  <si>
-    <t>X214Bi.Units</t>
-  </si>
-  <si>
-    <t>Error.214Bi</t>
-  </si>
-  <si>
-    <t>Error..214Bi..Units</t>
-  </si>
-  <si>
-    <t>X137Cs</t>
-  </si>
-  <si>
-    <t>X137Cs.Units</t>
-  </si>
-  <si>
-    <t>Error..137Cs.</t>
-  </si>
-  <si>
-    <t>Error..137Cs..Units</t>
-  </si>
-  <si>
-    <t>Supported.210Pb</t>
-  </si>
-  <si>
-    <t>Supported.210Pb.Units</t>
-  </si>
-  <si>
-    <t>Error..Supported.210Pb..1SD</t>
-  </si>
-  <si>
-    <t>Error..Supported.210Pb..1SD.Units</t>
-  </si>
-  <si>
-    <t>Unsupported.210Pb</t>
-  </si>
-  <si>
-    <t>Excess 210Pb</t>
-  </si>
-  <si>
-    <t>52472</t>
-  </si>
-  <si>
-    <t>Unsupported.210Pb.Units</t>
-  </si>
-  <si>
-    <t>Error..Unsupported.210Pb..1SD</t>
-  </si>
-  <si>
-    <t>Error..Unsupported.210Pb..1SD.Units</t>
-  </si>
-  <si>
-    <t>DMAR</t>
-  </si>
-  <si>
-    <t>dry mass accumulation rate</t>
-  </si>
-  <si>
-    <t>DMAR.Units</t>
-  </si>
-  <si>
-    <t>Error..DMAR.</t>
-  </si>
-  <si>
-    <t>Error..DMAR..Units</t>
-  </si>
-  <si>
-    <t>Publications</t>
-  </si>
-  <si>
-    <t>ndb.publications.doi</t>
-  </si>
-  <si>
-    <t>The format is the regex for a DOI</t>
+    <t>bibliographicCitation</t>
+  </si>
+  <si>
+    <t>ndb.publications.id</t>
   </si>
   <si>
     <t>^10.\d{4,9}/[-._;()/:A-Z0-9]+$</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>ndb.geopoliticalunits.geopoliticalunit</t>
   </si>
   <si>
-    <t>Depositional.Env</t>
+    <t>habitat</t>
   </si>
   <si>
     <t>ndb.depenvttypes.depenvt</t>
   </si>
   <si>
-    <t>Method.for.estimating.supported.210Pb</t>
-  </si>
-  <si>
-    <t>ndb.leadmodels.basis</t>
-  </si>
-  <si>
-    <t>[‘asymptote of alpha', 'gamma point-subtraction', 'gamma average’]</t>
-  </si>
-  <si>
-    <t>X210Pb.dating.horizon</t>
-  </si>
-  <si>
-    <t>ndb.leadmodels.datinghorizon</t>
-  </si>
-  <si>
-    <t>Cumulative.210Pb.Inventory</t>
-  </si>
-  <si>
-    <t>ndb.leadmodels.cumulativeinventory</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>ndb.contactreferences.contactid</t>
+  </si>
+  <si>
+    <t>scientificNameAuthorship</t>
+  </si>
+  <si>
+    <t>ndb.taxa.publication</t>
+  </si>
+  <si>
+    <t>typeLocality*</t>
+  </si>
+  <si>
+    <t>ndb.lakeparameters.depth</t>
+  </si>
+  <si>
+    <t>verbatimDepth</t>
+  </si>
+  <si>
+    <t>This is sampling depth, not lake doepth</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>superfamily*</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>subfamily*</t>
+  </si>
+  <si>
+    <t>genus</t>
+  </si>
+  <si>
+    <t>specificEpithet</t>
+  </si>
+  <si>
+    <t>lifeStage</t>
+  </si>
+  <si>
+    <t>This must be some part of the data value/variable description, but I'm not sure where it is.</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>sexRatio*</t>
+  </si>
+  <si>
+    <t>continent</t>
+  </si>
+  <si>
+    <t>This is a spatial overlay</t>
+  </si>
+  <si>
+    <t>islandGroup</t>
+  </si>
+  <si>
+    <t>This is spatial overlay (except when it isn't)</t>
+  </si>
+  <si>
+    <t>island</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Note: Validated this programmatically with the example data and get exact matches (or more precise matches)</t>
+  </si>
+  <si>
+    <t>stateProvince</t>
+  </si>
+  <si>
+    <t>municipality</t>
+  </si>
+  <si>
+    <t>locality</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>This gets pasted together in the column eventDate</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>environment*</t>
+  </si>
+  <si>
+    <t>This is a modifier to the depositional environment and might be "location within unit"</t>
+  </si>
+  <si>
+    <t>duration*</t>
+  </si>
+  <si>
+    <t>substrate*</t>
+  </si>
+  <si>
+    <t>vegetation*</t>
+  </si>
+  <si>
+    <t>samplingProtocol</t>
+  </si>
+  <si>
+    <t>temperature*</t>
+  </si>
+  <si>
+    <t>pH*</t>
+  </si>
+  <si>
+    <t>conductivity*</t>
+  </si>
+  <si>
+    <t>salinity*</t>
+  </si>
+  <si>
+    <t>dissolved oxygen*</t>
+  </si>
+  <si>
+    <t>typeStatus</t>
+  </si>
+  <si>
+    <t>institutionCode</t>
+  </si>
+  <si>
+    <t>collectionID</t>
+  </si>
+  <si>
+    <t>catalogNumber</t>
+  </si>
+  <si>
+    <t>basisOfRecord</t>
+  </si>
+  <si>
+    <t>nameInPaper</t>
+  </si>
+  <si>
+    <t>figured?*</t>
+  </si>
+  <si>
+    <t>storage*</t>
+  </si>
+  <si>
+    <t>comments*</t>
+  </si>
+  <si>
+    <t>females</t>
+  </si>
+  <si>
+    <t>males</t>
+  </si>
+  <si>
+    <t>males and females text</t>
+  </si>
+  <si>
+    <t>recordedBy</t>
+  </si>
+  <si>
+    <t>waterBody</t>
   </si>
 </sst>
 </file>
@@ -929,7 +575,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -970,10 +616,15 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -995,6 +646,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -1115,7 +772,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1141,9 +798,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1176,10 +830,19 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1190,6 +853,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1212,6 +881,7 @@
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffdddddd"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2314,16 +1984,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="s" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="5">
         <v>12</v>
-      </c>
-      <c r="B4" t="s" s="5">
-        <v>13</v>
       </c>
       <c r="C4" t="b" s="6">
         <v>1</v>
@@ -2331,19 +2001,15 @@
       <c r="D4" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="9">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s" s="7">
-        <v>14</v>
-      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s" s="5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="b" s="6">
         <v>0</v>
@@ -2355,44 +2021,44 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2410,22 +2076,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21" style="19" customWidth="1"/>
-    <col min="2" max="2" width="28" style="19" customWidth="1"/>
-    <col min="3" max="3" width="9.67188" style="19" customWidth="1"/>
-    <col min="4" max="4" width="10.1719" style="19" customWidth="1"/>
-    <col min="5" max="5" width="24.8516" style="19" customWidth="1"/>
-    <col min="6" max="6" width="9.17188" style="19" customWidth="1"/>
-    <col min="7" max="13" width="24.8516" style="19" customWidth="1"/>
-    <col min="14" max="14" width="24.5" style="19" customWidth="1"/>
-    <col min="15" max="16" width="31.5" style="19" customWidth="1"/>
-    <col min="17" max="16384" width="11.5" style="19" customWidth="1"/>
+    <col min="1" max="1" width="21" style="18" customWidth="1"/>
+    <col min="2" max="2" width="28" style="18" customWidth="1"/>
+    <col min="3" max="3" width="9.67188" style="18" customWidth="1"/>
+    <col min="4" max="4" width="10.1719" style="18" customWidth="1"/>
+    <col min="5" max="5" width="24.8516" style="18" customWidth="1"/>
+    <col min="6" max="6" width="9.17188" style="18" customWidth="1"/>
+    <col min="7" max="13" width="24.8516" style="18" customWidth="1"/>
+    <col min="14" max="14" width="24.5" style="18" customWidth="1"/>
+    <col min="15" max="16" width="31.5" style="18" customWidth="1"/>
+    <col min="17" max="16384" width="11.5" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.6" customHeight="1">
@@ -2445,45 +2111,45 @@
         <v>5</v>
       </c>
       <c r="F1" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="I1" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="J1" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="K1" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="L1" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="M1" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="N1" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="O1" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="P1" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="O1" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="P1" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="2" ht="13.65" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="b" s="6">
         <v>1</v>
@@ -2491,12 +2157,14 @@
       <c r="D2" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" t="s" s="19">
+        <v>28</v>
+      </c>
       <c r="F2" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G2" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -2510,23 +2178,23 @@
     </row>
     <row r="3" ht="13.65" customHeight="1">
       <c r="A3" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="C3" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s" s="20">
         <v>32</v>
-      </c>
-      <c r="C3" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s" s="20">
-        <v>33</v>
       </c>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
@@ -2540,25 +2208,25 @@
     </row>
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="5">
         <v>34</v>
-      </c>
-      <c r="B4" t="s" s="5">
-        <v>35</v>
       </c>
       <c r="C4" t="b" s="6">
         <v>1</v>
       </c>
       <c r="D4" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="23"/>
       <c r="F4" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G4" t="s" s="20">
-        <v>36</v>
-      </c>
-      <c r="H4" s="22"/>
+        <v>35</v>
+      </c>
+      <c r="H4" s="24"/>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
@@ -2570,23 +2238,23 @@
     </row>
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="C5" t="b" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s" s="20">
         <v>37</v>
-      </c>
-      <c r="B5" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="C5" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s" s="20">
-        <v>39</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
@@ -2600,23 +2268,23 @@
     </row>
     <row r="6" ht="13.65" customHeight="1">
       <c r="A6" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="C6" t="b" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s" s="20">
         <v>37</v>
-      </c>
-      <c r="B6" t="s" s="5">
-        <v>40</v>
-      </c>
-      <c r="C6" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s" s="20">
-        <v>39</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -2630,23 +2298,23 @@
     </row>
     <row r="7" ht="13.65" customHeight="1">
       <c r="A7" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="C7" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s" s="20">
         <v>37</v>
-      </c>
-      <c r="B7" t="s" s="5">
-        <v>41</v>
-      </c>
-      <c r="C7" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s" s="20">
-        <v>30</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
@@ -2660,23 +2328,23 @@
     </row>
     <row r="8" ht="13.65" customHeight="1">
       <c r="A8" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s" s="5">
+        <v>41</v>
+      </c>
+      <c r="C8" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s" s="20">
         <v>37</v>
-      </c>
-      <c r="B8" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="C8" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s" s="20">
-        <v>30</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
@@ -2690,7 +2358,7 @@
     </row>
     <row r="9" ht="13.65" customHeight="1">
       <c r="A9" t="s" s="4">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="5">
         <v>43</v>
@@ -2699,14 +2367,14 @@
         <v>0</v>
       </c>
       <c r="D9" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="23"/>
       <c r="F9" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s" s="20">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -2720,23 +2388,23 @@
     </row>
     <row r="10" ht="13.65" customHeight="1">
       <c r="A10" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s" s="5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D10" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="22"/>
       <c r="F10" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="s" s="20">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
@@ -2750,23 +2418,23 @@
     </row>
     <row r="11" ht="13.65" customHeight="1">
       <c r="A11" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="C11" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s" s="20">
         <v>46</v>
-      </c>
-      <c r="B11" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="C11" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s" s="20">
-        <v>30</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -2780,23 +2448,23 @@
     </row>
     <row r="12" ht="13.65" customHeight="1">
       <c r="A12" t="s" s="4">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s" s="5">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="22"/>
       <c r="F12" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s" s="20">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -2810,23 +2478,23 @@
     </row>
     <row r="13" ht="13.65" customHeight="1">
       <c r="A13" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s" s="5">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D13" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="22"/>
       <c r="F13" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G13" t="s" s="20">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
@@ -2840,23 +2508,23 @@
     </row>
     <row r="14" ht="13.65" customHeight="1">
       <c r="A14" t="s" s="4">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s" s="5">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D14" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="22"/>
       <c r="F14" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="s" s="20">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
@@ -2870,23 +2538,23 @@
     </row>
     <row r="15" ht="13.65" customHeight="1">
       <c r="A15" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s" s="5">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D15" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="22"/>
       <c r="F15" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G15" t="s" s="20">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
@@ -2900,27 +2568,25 @@
     </row>
     <row r="16" ht="13.65" customHeight="1">
       <c r="A16" t="s" s="4">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s" s="5">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D16" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="22"/>
       <c r="F16" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G16" t="s" s="20">
-        <v>44</v>
-      </c>
-      <c r="H16" t="s" s="20">
-        <v>55</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
@@ -2932,23 +2598,23 @@
     </row>
     <row r="17" ht="13.65" customHeight="1">
       <c r="A17" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="5">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C17" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D17" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="22"/>
       <c r="F17" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G17" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -2962,25 +2628,27 @@
     </row>
     <row r="18" ht="13.65" customHeight="1">
       <c r="A18" t="s" s="4">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s" s="5">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D18" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="23"/>
       <c r="F18" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G18" t="s" s="20">
-        <v>39</v>
-      </c>
-      <c r="H18" s="21"/>
+        <v>46</v>
+      </c>
+      <c r="H18" t="s" s="20">
+        <v>56</v>
+      </c>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
@@ -2992,23 +2660,23 @@
     </row>
     <row r="19" ht="13.65" customHeight="1">
       <c r="A19" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s" s="5">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D19" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="22"/>
       <c r="F19" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G19" t="s" s="20">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
@@ -3022,23 +2690,23 @@
     </row>
     <row r="20" ht="13.65" customHeight="1">
       <c r="A20" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="C20" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s" s="20">
         <v>37</v>
-      </c>
-      <c r="B20" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="C20" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s" s="20">
-        <v>39</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
@@ -3052,23 +2720,23 @@
     </row>
     <row r="21" ht="13.65" customHeight="1">
       <c r="A21" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s" s="5">
+        <v>59</v>
+      </c>
+      <c r="C21" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s" s="20">
         <v>37</v>
-      </c>
-      <c r="B21" t="s" s="5">
-        <v>60</v>
-      </c>
-      <c r="C21" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s" s="20">
-        <v>39</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
@@ -3082,23 +2750,23 @@
     </row>
     <row r="22" ht="13.65" customHeight="1">
       <c r="A22" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s" s="5">
+        <v>60</v>
+      </c>
+      <c r="C22" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s" s="20">
         <v>37</v>
-      </c>
-      <c r="B22" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="C22" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s" s="20">
-        <v>39</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
@@ -3112,23 +2780,23 @@
     </row>
     <row r="23" ht="13.65" customHeight="1">
       <c r="A23" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s" s="5">
+        <v>61</v>
+      </c>
+      <c r="C23" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s" s="20">
         <v>37</v>
-      </c>
-      <c r="B23" t="s" s="5">
-        <v>62</v>
-      </c>
-      <c r="C23" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s" s="20">
-        <v>33</v>
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
@@ -3142,23 +2810,23 @@
     </row>
     <row r="24" ht="13.65" customHeight="1">
       <c r="A24" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s" s="5">
+        <v>62</v>
+      </c>
+      <c r="C24" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s" s="20">
         <v>37</v>
-      </c>
-      <c r="B24" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="C24" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s" s="20">
-        <v>33</v>
       </c>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
@@ -3172,23 +2840,23 @@
     </row>
     <row r="25" ht="13.65" customHeight="1">
       <c r="A25" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s" s="5">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D25" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="22"/>
       <c r="F25" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="s" s="20">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
@@ -3202,28 +2870,26 @@
     </row>
     <row r="26" ht="13.65" customHeight="1">
       <c r="A26" t="s" s="4">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s" s="5">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D26" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="22"/>
       <c r="F26" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G26" t="s" s="20">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H26" s="21"/>
-      <c r="I26" t="s" s="20">
-        <v>67</v>
-      </c>
+      <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -3234,23 +2900,23 @@
     </row>
     <row r="27" ht="13.65" customHeight="1">
       <c r="A27" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s" s="5">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C27" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D27" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E27" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="22"/>
       <c r="F27" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="s" s="20">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -3264,26 +2930,26 @@
     </row>
     <row r="28" ht="13.65" customHeight="1">
       <c r="A28" t="s" s="4">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s" s="5">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C28" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D28" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="22"/>
       <c r="F28" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G28" t="s" s="20">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
@@ -3294,23 +2960,23 @@
     </row>
     <row r="29" ht="13.65" customHeight="1">
       <c r="A29" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s" s="5">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C29" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D29" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="22"/>
       <c r="F29" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
@@ -3324,23 +2990,23 @@
     </row>
     <row r="30" ht="13.65" customHeight="1">
       <c r="A30" t="s" s="4">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s" s="5">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C30" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E30" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="22"/>
       <c r="F30" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="s" s="20">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
@@ -3354,23 +3020,23 @@
     </row>
     <row r="31" ht="13.65" customHeight="1">
       <c r="A31" t="s" s="4">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s" s="5">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C31" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E31" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="22"/>
       <c r="F31" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="s" s="20">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -3384,23 +3050,23 @@
     </row>
     <row r="32" ht="13.65" customHeight="1">
       <c r="A32" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s" s="5">
+        <v>70</v>
+      </c>
+      <c r="C32" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s" s="20">
         <v>37</v>
-      </c>
-      <c r="B32" t="s" s="5">
-        <v>76</v>
-      </c>
-      <c r="C32" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D32" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s" s="20">
-        <v>33</v>
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
@@ -3414,23 +3080,23 @@
     </row>
     <row r="33" ht="13.65" customHeight="1">
       <c r="A33" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s" s="5">
+        <v>71</v>
+      </c>
+      <c r="C33" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s" s="20">
         <v>37</v>
-      </c>
-      <c r="B33" t="s" s="5">
-        <v>77</v>
-      </c>
-      <c r="C33" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D33" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s" s="20">
-        <v>78</v>
       </c>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
@@ -3444,23 +3110,23 @@
     </row>
     <row r="34" ht="13.65" customHeight="1">
       <c r="A34" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s" s="5">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C34" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D34" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E34" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="22"/>
       <c r="F34" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="s" s="20">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
@@ -3474,23 +3140,23 @@
     </row>
     <row r="35" ht="13.65" customHeight="1">
       <c r="A35" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s" s="5">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C35" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D35" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E35" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="22"/>
       <c r="F35" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="s" s="20">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
@@ -3504,28 +3170,26 @@
     </row>
     <row r="36" ht="13.65" customHeight="1">
       <c r="A36" t="s" s="4">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s" s="5">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C36" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D36" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E36" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="22"/>
       <c r="F36" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H36" s="21"/>
-      <c r="I36" t="s" s="20">
-        <v>83</v>
-      </c>
+      <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
       <c r="L36" s="21"/>
@@ -3536,23 +3200,23 @@
     </row>
     <row r="37" ht="13.65" customHeight="1">
       <c r="A37" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s" s="5">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C37" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D37" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E37" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="22"/>
       <c r="F37" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="s" s="20">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
@@ -3566,26 +3230,26 @@
     </row>
     <row r="38" ht="13.65" customHeight="1">
       <c r="A38" t="s" s="4">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s" s="5">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C38" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D38" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E38" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="22"/>
       <c r="F38" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G38" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
+      <c r="I38" s="20"/>
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
       <c r="L38" s="21"/>
@@ -3596,23 +3260,23 @@
     </row>
     <row r="39" ht="13.65" customHeight="1">
       <c r="A39" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s" s="5">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C39" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D39" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E39" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="22"/>
       <c r="F39" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="s" s="20">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
@@ -3626,23 +3290,23 @@
     </row>
     <row r="40" ht="13.65" customHeight="1">
       <c r="A40" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s" s="5">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C40" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D40" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E40" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="22"/>
       <c r="F40" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G40" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
@@ -3656,23 +3320,23 @@
     </row>
     <row r="41" ht="13.65" customHeight="1">
       <c r="A41" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s" s="5">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C41" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D41" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E41" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="22"/>
       <c r="F41" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G41" t="s" s="20">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
@@ -3686,28 +3350,26 @@
     </row>
     <row r="42" ht="13.65" customHeight="1">
       <c r="A42" t="s" s="4">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s" s="5">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C42" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E42" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="22"/>
       <c r="F42" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G42" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H42" s="21"/>
-      <c r="I42" t="s" s="20">
-        <v>92</v>
-      </c>
+      <c r="I42" s="21"/>
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
       <c r="L42" s="21"/>
@@ -3718,23 +3380,23 @@
     </row>
     <row r="43" ht="13.65" customHeight="1">
       <c r="A43" t="s" s="4">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s" s="5">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C43" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D43" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E43" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="22"/>
       <c r="F43" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G43" t="s" s="20">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
@@ -3748,25 +3410,23 @@
     </row>
     <row r="44" ht="13.65" customHeight="1">
       <c r="A44" t="s" s="4">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s" s="5">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C44" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s" s="7">
-        <v>96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E44" s="22"/>
       <c r="F44" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="s" s="20">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
@@ -3780,25 +3440,23 @@
     </row>
     <row r="45" ht="13.65" customHeight="1">
       <c r="A45" t="s" s="4">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s" s="5">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C45" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s" s="7">
-        <v>96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E45" s="22"/>
       <c r="F45" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="s" s="20">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
@@ -3812,30 +3470,26 @@
     </row>
     <row r="46" ht="13.65" customHeight="1">
       <c r="A46" t="s" s="4">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s" s="5">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C46" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D46" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s" s="7">
-        <v>96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E46" s="22"/>
       <c r="F46" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H46" s="21"/>
-      <c r="I46" t="s" s="20">
-        <v>83</v>
-      </c>
+      <c r="I46" s="20"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
@@ -3846,98 +3500,88 @@
     </row>
     <row r="47" ht="13.65" customHeight="1">
       <c r="A47" t="s" s="4">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s" s="5">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C47" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D47" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s" s="7">
-        <v>101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E47" s="22"/>
       <c r="F47" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="s" s="20">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
       <c r="L47" s="21"/>
-      <c r="M47" t="s" s="20">
-        <v>102</v>
-      </c>
-      <c r="N47" t="s" s="20">
-        <v>103</v>
-      </c>
-      <c r="O47" t="s" s="20">
-        <v>104</v>
-      </c>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
       <c r="P47" s="21"/>
     </row>
     <row r="48" ht="13.65" customHeight="1">
       <c r="A48" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s" s="5">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C48" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D48" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E48" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="22"/>
       <c r="F48" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
-      <c r="K48" s="23"/>
+      <c r="K48" s="25"/>
       <c r="L48" s="21"/>
-      <c r="M48" t="s" s="20">
-        <v>106</v>
-      </c>
+      <c r="M48" s="20"/>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
       <c r="P48" s="21"/>
     </row>
     <row r="49" ht="13.65" customHeight="1">
       <c r="A49" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s" s="5">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C49" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D49" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E49" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="22"/>
       <c r="F49" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="s" s="20">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
-      <c r="K49" s="23"/>
+      <c r="K49" s="25"/>
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
       <c r="N49" s="21"/>
@@ -3946,57 +3590,53 @@
     </row>
     <row r="50" ht="13.65" customHeight="1">
       <c r="A50" t="s" s="4">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s" s="5">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C50" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D50" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E50" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="22"/>
       <c r="F50" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="s" s="20">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="21"/>
-      <c r="K50" t="s" s="24">
-        <v>110</v>
-      </c>
+      <c r="K50" s="26"/>
       <c r="L50" s="21"/>
-      <c r="M50" t="s" s="20">
-        <v>111</v>
-      </c>
+      <c r="M50" s="20"/>
       <c r="N50" s="21"/>
       <c r="O50" s="21"/>
       <c r="P50" s="21"/>
     </row>
     <row r="51" ht="13.65" customHeight="1">
       <c r="A51" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s" s="5">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C51" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D51" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E51" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="22"/>
       <c r="F51" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G51" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
@@ -4010,7 +3650,7 @@
     </row>
     <row r="52" ht="13.65" customHeight="1">
       <c r="A52" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s" s="5">
         <v>7</v>
@@ -4019,14 +3659,14 @@
         <v>0</v>
       </c>
       <c r="D52" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E52" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="22"/>
       <c r="F52" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G52" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
@@ -4040,23 +3680,23 @@
     </row>
     <row r="53" ht="13.65" customHeight="1">
       <c r="A53" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s" s="5">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C53" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D53" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E53" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="22"/>
       <c r="F53" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G53" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
@@ -4070,30 +3710,30 @@
     </row>
     <row r="54" ht="13.65" customHeight="1">
       <c r="A54" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s" s="5">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C54" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E54" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="22"/>
       <c r="F54" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G54" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H54" s="21"/>
       <c r="I54" t="s" s="20">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="J54" t="s" s="20">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="K54" s="21"/>
       <c r="L54" s="21"/>
@@ -4104,27 +3744,27 @@
     </row>
     <row r="55" ht="13.65" customHeight="1">
       <c r="A55" t="s" s="4">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s" s="5">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C55" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E55" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="22"/>
       <c r="F55" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G55" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H55" s="21"/>
       <c r="I55" t="s" s="20">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="J55" s="21"/>
       <c r="K55" s="21"/>
@@ -4136,27 +3776,27 @@
     </row>
     <row r="56" ht="13.65" customHeight="1">
       <c r="A56" t="s" s="4">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s" s="5">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C56" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D56" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E56" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="22"/>
       <c r="F56" t="b" s="6">
         <v>1</v>
       </c>
       <c r="G56" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H56" s="21"/>
       <c r="I56" t="s" s="20">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
@@ -4168,23 +3808,23 @@
     </row>
     <row r="57" ht="13.65" customHeight="1">
       <c r="A57" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E57" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="22"/>
       <c r="F57" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G57" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
@@ -4198,30 +3838,30 @@
     </row>
     <row r="58" ht="13.65" customHeight="1">
       <c r="A58" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s" s="5">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C58" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E58" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="22"/>
       <c r="F58" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G58" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H58" s="21"/>
       <c r="I58" t="s" s="20">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="J58" t="s" s="20">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="K58" s="21"/>
       <c r="L58" s="21"/>
@@ -4232,23 +3872,25 @@
     </row>
     <row r="59" ht="13.65" customHeight="1">
       <c r="A59" t="s" s="4">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s" s="5">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C59" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D59" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E59" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E59" t="s" s="19">
+        <v>100</v>
+      </c>
       <c r="F59" t="b" s="6">
         <v>1</v>
       </c>
       <c r="G59" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
@@ -4262,23 +3904,23 @@
     </row>
     <row r="60" ht="13.65" customHeight="1">
       <c r="A60" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s" s="5">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C60" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D60" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E60" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="22"/>
       <c r="F60" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="s" s="20">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
@@ -4292,23 +3934,23 @@
     </row>
     <row r="61" ht="13.65" customHeight="1">
       <c r="A61" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B61" t="s" s="5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C61" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D61" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E61" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="22"/>
       <c r="F61" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G61" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
@@ -4322,23 +3964,23 @@
     </row>
     <row r="62" ht="13.65" customHeight="1">
       <c r="A62" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B62" t="s" s="5">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C62" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D62" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E62" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="22"/>
       <c r="F62" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
@@ -4352,23 +3994,23 @@
     </row>
     <row r="63" ht="13.65" customHeight="1">
       <c r="A63" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s" s="5">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C63" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D63" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E63" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="22"/>
       <c r="F63" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
@@ -4382,23 +4024,23 @@
     </row>
     <row r="64" ht="13.65" customHeight="1">
       <c r="A64" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s" s="5">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C64" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D64" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E64" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="22"/>
       <c r="F64" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="s" s="20">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
@@ -4412,23 +4054,23 @@
     </row>
     <row r="65" ht="13.65" customHeight="1">
       <c r="A65" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B65" t="s" s="5">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C65" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D65" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E65" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="22"/>
       <c r="F65" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="s" s="20">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
@@ -4442,59 +4084,53 @@
     </row>
     <row r="66" ht="13.65" customHeight="1">
       <c r="A66" t="s" s="4">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s" s="5">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="C66" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D66" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E66" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="22"/>
       <c r="F66" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
       <c r="J66" s="21"/>
       <c r="K66" s="21"/>
       <c r="L66" s="21"/>
-      <c r="M66" t="s" s="20">
-        <v>102</v>
-      </c>
-      <c r="N66" t="s" s="20">
-        <v>103</v>
-      </c>
-      <c r="O66" t="s" s="20">
-        <v>104</v>
-      </c>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
       <c r="P66" s="21"/>
     </row>
     <row r="67" ht="13.65" customHeight="1">
       <c r="A67" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B67" t="s" s="5">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C67" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E67" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="22"/>
       <c r="F67" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
@@ -4508,23 +4144,23 @@
     </row>
     <row r="68" ht="13.65" customHeight="1">
       <c r="A68" t="s" s="4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B68" t="s" s="5">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C68" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E68" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E68" s="22"/>
       <c r="F68" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
@@ -4538,438 +4174,340 @@
     </row>
     <row r="69" ht="13.65" customHeight="1">
       <c r="A69" t="s" s="4">
-        <v>131</v>
-      </c>
-      <c r="B69" t="s" s="5">
-        <v>132</v>
+        <v>109</v>
+      </c>
+      <c r="B69" t="s" s="27">
+        <v>110</v>
       </c>
       <c r="C69" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D69" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E69" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E69" t="s" s="19">
+        <v>111</v>
+      </c>
       <c r="F69" t="b" s="6">
         <v>1</v>
       </c>
       <c r="G69" t="s" s="20">
-        <v>39</v>
-      </c>
-      <c r="H69" t="s" s="20">
-        <v>133</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H69" s="20"/>
       <c r="I69" s="21"/>
       <c r="J69" s="21"/>
-      <c r="K69" t="s" s="20">
-        <v>134</v>
-      </c>
-      <c r="L69" s="22">
-        <v>5782</v>
-      </c>
-      <c r="M69" t="s" s="20">
-        <v>135</v>
-      </c>
+      <c r="K69" s="20"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="20"/>
       <c r="N69" s="21"/>
       <c r="O69" s="21"/>
       <c r="P69" s="21"/>
     </row>
     <row r="70" ht="13.65" customHeight="1">
       <c r="A70" t="s" s="4">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B70" t="s" s="5">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C70" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D70" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E70" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="23"/>
       <c r="F70" t="b" s="6">
         <v>1</v>
       </c>
       <c r="G70" t="s" s="20">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H70" t="s" s="20">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="I70" s="21"/>
       <c r="J70" s="21"/>
-      <c r="K70" t="s" s="20">
-        <v>137</v>
-      </c>
-      <c r="L70" t="s" s="20">
-        <v>138</v>
-      </c>
-      <c r="M70" t="s" s="20">
-        <v>139</v>
-      </c>
+      <c r="K70" s="20"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="20"/>
       <c r="N70" s="21"/>
       <c r="O70" s="21"/>
       <c r="P70" s="21"/>
     </row>
     <row r="71" ht="13.65" customHeight="1">
       <c r="A71" t="s" s="4">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B71" t="s" s="5">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C71" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D71" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E71" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="23"/>
       <c r="F71" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="s" s="20">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H71" t="s" s="20">
-        <v>133</v>
-      </c>
-      <c r="I71" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="I71" t="s" s="20">
+        <v>93</v>
+      </c>
       <c r="J71" s="21"/>
-      <c r="K71" t="s" s="20">
-        <v>141</v>
-      </c>
-      <c r="L71" t="s" s="20">
-        <v>138</v>
-      </c>
-      <c r="M71" t="s" s="20">
-        <v>142</v>
-      </c>
-      <c r="N71" t="s" s="20">
-        <v>143</v>
-      </c>
-      <c r="O71" t="s" s="20">
-        <v>144</v>
-      </c>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
       <c r="P71" s="21"/>
     </row>
     <row r="72" ht="13.65" customHeight="1">
       <c r="A72" t="s" s="4">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s" s="5">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C72" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D72" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E72" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="22"/>
       <c r="F72" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="s" s="20">
-        <v>39</v>
-      </c>
-      <c r="H72" t="s" s="20">
-        <v>133</v>
-      </c>
-      <c r="I72" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="H72" s="21"/>
+      <c r="I72" t="s" s="20">
+        <v>93</v>
+      </c>
       <c r="J72" s="21"/>
-      <c r="K72" t="s" s="24">
-        <v>8</v>
-      </c>
-      <c r="L72" t="s" s="20">
-        <v>138</v>
-      </c>
-      <c r="M72" t="s" s="20">
-        <v>146</v>
-      </c>
-      <c r="N72" t="s" s="20">
-        <v>147</v>
-      </c>
-      <c r="O72" t="s" s="20">
-        <v>148</v>
-      </c>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
       <c r="P72" s="21"/>
     </row>
     <row r="73" ht="13.65" customHeight="1">
       <c r="A73" t="s" s="4">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="B73" t="s" s="5">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C73" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D73" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E73" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="23"/>
       <c r="F73" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="s" s="20">
-        <v>39</v>
-      </c>
-      <c r="H73" t="s" s="20">
-        <v>133</v>
-      </c>
-      <c r="I73" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="H73" s="21"/>
+      <c r="I73" t="s" s="20">
+        <v>93</v>
+      </c>
       <c r="J73" s="21"/>
-      <c r="K73" t="s" s="24">
-        <v>150</v>
-      </c>
-      <c r="L73" t="s" s="20">
-        <v>138</v>
-      </c>
-      <c r="M73" t="s" s="20">
-        <v>151</v>
-      </c>
-      <c r="N73" t="s" s="20">
-        <v>152</v>
-      </c>
-      <c r="O73" t="s" s="20">
-        <v>153</v>
-      </c>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
       <c r="P73" s="21"/>
     </row>
     <row r="74" ht="13.65" customHeight="1">
       <c r="A74" t="s" s="4">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="B74" t="s" s="5">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C74" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D74" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E74" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="22"/>
       <c r="F74" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="s" s="20">
-        <v>39</v>
-      </c>
-      <c r="H74" t="s" s="20">
-        <v>133</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H74" s="21"/>
       <c r="I74" s="21"/>
       <c r="J74" s="21"/>
-      <c r="K74" t="s" s="24">
-        <v>155</v>
-      </c>
-      <c r="L74" t="s" s="20">
-        <v>138</v>
-      </c>
-      <c r="M74" t="s" s="20">
-        <v>156</v>
-      </c>
-      <c r="N74" t="s" s="20">
-        <v>157</v>
-      </c>
-      <c r="O74" t="s" s="20">
-        <v>158</v>
-      </c>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
       <c r="P74" s="21"/>
     </row>
     <row r="75" ht="13.65" customHeight="1">
       <c r="A75" t="s" s="4">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B75" t="s" s="5">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C75" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D75" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E75" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="23"/>
       <c r="F75" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="s" s="20">
-        <v>39</v>
-      </c>
-      <c r="H75" t="s" s="20">
-        <v>133</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H75" s="21"/>
       <c r="I75" s="21"/>
       <c r="J75" s="21"/>
-      <c r="K75" t="s" s="24">
-        <v>110</v>
-      </c>
-      <c r="L75" t="s" s="20">
-        <v>138</v>
-      </c>
-      <c r="M75" t="s" s="20">
-        <v>160</v>
-      </c>
-      <c r="N75" t="s" s="20">
-        <v>161</v>
-      </c>
-      <c r="O75" t="s" s="20">
-        <v>162</v>
-      </c>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
       <c r="P75" s="21"/>
     </row>
     <row r="76" ht="13.65" customHeight="1">
-      <c r="A76" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="B76" t="s" s="5">
-        <v>132</v>
+      <c r="A76" t="s" s="28">
+        <v>124</v>
+      </c>
+      <c r="B76" t="s" s="28">
+        <v>125</v>
       </c>
       <c r="C76" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D76" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E76" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="23"/>
       <c r="F76" t="b" s="6">
         <v>1</v>
       </c>
       <c r="G76" t="s" s="20">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
       <c r="J76" s="21"/>
-      <c r="K76" t="s" s="24">
-        <v>141</v>
-      </c>
-      <c r="L76" t="s" s="20">
-        <v>138</v>
-      </c>
-      <c r="M76" t="s" s="20">
-        <v>164</v>
-      </c>
-      <c r="N76" t="s" s="20">
-        <v>165</v>
-      </c>
-      <c r="O76" t="s" s="20">
-        <v>166</v>
-      </c>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
       <c r="P76" s="21"/>
     </row>
     <row r="77" ht="13.65" customHeight="1">
-      <c r="A77" t="s" s="4">
-        <v>167</v>
-      </c>
-      <c r="B77" t="s" s="5">
-        <v>132</v>
+      <c r="A77" t="s" s="28">
+        <v>126</v>
+      </c>
+      <c r="B77" t="s" s="28">
+        <v>125</v>
       </c>
       <c r="C77" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D77" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E77" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E77" t="s" s="19">
+        <v>127</v>
+      </c>
       <c r="F77" t="b" s="6">
         <v>1</v>
       </c>
       <c r="G77" t="s" s="20">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
       <c r="J77" s="21"/>
-      <c r="K77" t="s" s="24">
-        <v>168</v>
-      </c>
-      <c r="L77" t="s" s="20">
-        <v>169</v>
-      </c>
-      <c r="M77" t="s" s="20">
-        <v>170</v>
-      </c>
-      <c r="N77" t="s" s="20">
-        <v>171</v>
-      </c>
-      <c r="O77" t="s" s="20">
-        <v>172</v>
-      </c>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="21"/>
       <c r="P77" s="21"/>
     </row>
     <row r="78" ht="13.65" customHeight="1">
-      <c r="A78" t="s" s="4">
-        <v>173</v>
-      </c>
-      <c r="B78" t="s" s="5">
-        <v>132</v>
+      <c r="A78" t="s" s="28">
+        <v>128</v>
+      </c>
+      <c r="B78" t="s" s="4">
+        <v>30</v>
       </c>
       <c r="C78" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D78" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E78" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="23"/>
       <c r="F78" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="s" s="20">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="21"/>
-      <c r="K78" t="s" s="24">
-        <v>174</v>
-      </c>
-      <c r="L78" t="s" s="20">
-        <v>138</v>
-      </c>
-      <c r="M78" t="s" s="20">
-        <v>175</v>
-      </c>
-      <c r="N78" t="s" s="20">
-        <v>176</v>
-      </c>
-      <c r="O78" t="s" s="20">
-        <v>177</v>
-      </c>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
       <c r="P78" s="21"/>
     </row>
     <row r="79" ht="13.65" customHeight="1">
-      <c r="A79" t="s" s="4">
-        <v>178</v>
-      </c>
-      <c r="B79" t="s" s="5">
-        <v>179</v>
+      <c r="A79" t="s" s="28">
+        <v>129</v>
+      </c>
+      <c r="B79" t="s" s="4">
+        <v>30</v>
       </c>
       <c r="C79" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D79" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E79" t="s" s="7">
-        <v>180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E79" s="23"/>
       <c r="F79" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G79" t="s" s="20">
-        <v>30</v>
-      </c>
-      <c r="H79" t="s" s="20">
-        <v>181</v>
-      </c>
-      <c r="I79" t="s" s="20">
-        <v>115</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
       <c r="J79" s="21"/>
       <c r="K79" s="21"/>
       <c r="L79" s="21"/>
@@ -4979,29 +4517,27 @@
       <c r="P79" s="21"/>
     </row>
     <row r="80" ht="13.65" customHeight="1">
-      <c r="A80" t="s" s="4">
-        <v>182</v>
-      </c>
-      <c r="B80" t="s" s="5">
-        <v>183</v>
+      <c r="A80" t="s" s="28">
+        <v>130</v>
+      </c>
+      <c r="B80" t="s" s="4">
+        <v>30</v>
       </c>
       <c r="C80" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D80" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E80" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="23"/>
       <c r="F80" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G80" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H80" s="21"/>
-      <c r="I80" t="s" s="20">
-        <v>115</v>
-      </c>
+      <c r="I80" s="21"/>
       <c r="J80" s="21"/>
       <c r="K80" s="21"/>
       <c r="L80" s="21"/>
@@ -5011,29 +4547,27 @@
       <c r="P80" s="21"/>
     </row>
     <row r="81" ht="13.65" customHeight="1">
-      <c r="A81" t="s" s="4">
-        <v>184</v>
-      </c>
-      <c r="B81" t="s" s="5">
-        <v>185</v>
+      <c r="A81" t="s" s="28">
+        <v>131</v>
+      </c>
+      <c r="B81" t="s" s="4">
+        <v>30</v>
       </c>
       <c r="C81" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D81" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E81" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="23"/>
       <c r="F81" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G81" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H81" s="21"/>
-      <c r="I81" t="s" s="20">
-        <v>115</v>
-      </c>
+      <c r="I81" s="21"/>
       <c r="J81" s="21"/>
       <c r="K81" s="21"/>
       <c r="L81" s="21"/>
@@ -5043,29 +4577,27 @@
       <c r="P81" s="21"/>
     </row>
     <row r="82" ht="13.65" customHeight="1">
-      <c r="A82" t="s" s="4">
-        <v>186</v>
-      </c>
-      <c r="B82" t="s" s="5">
-        <v>187</v>
+      <c r="A82" t="s" s="28">
+        <v>132</v>
+      </c>
+      <c r="B82" t="s" s="4">
+        <v>30</v>
       </c>
       <c r="C82" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D82" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E82" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="23"/>
       <c r="F82" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G82" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H82" s="21"/>
-      <c r="I82" t="s" s="20">
-        <v>188</v>
-      </c>
+      <c r="I82" s="21"/>
       <c r="J82" s="21"/>
       <c r="K82" s="21"/>
       <c r="L82" s="21"/>
@@ -5075,24 +4607,24 @@
       <c r="P82" s="21"/>
     </row>
     <row r="83" ht="13.65" customHeight="1">
-      <c r="A83" t="s" s="4">
-        <v>189</v>
-      </c>
-      <c r="B83" t="s" s="5">
-        <v>190</v>
+      <c r="A83" t="s" s="28">
+        <v>133</v>
+      </c>
+      <c r="B83" t="s" s="4">
+        <v>30</v>
       </c>
       <c r="C83" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D83" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E83" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="23"/>
       <c r="F83" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G83" t="s" s="20">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
@@ -5105,24 +4637,26 @@
       <c r="P83" s="21"/>
     </row>
     <row r="84" ht="13.65" customHeight="1">
-      <c r="A84" t="s" s="4">
-        <v>191</v>
-      </c>
-      <c r="B84" t="s" s="5">
-        <v>192</v>
+      <c r="A84" t="s" s="28">
+        <v>134</v>
+      </c>
+      <c r="B84" t="s" s="4">
+        <v>30</v>
       </c>
       <c r="C84" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D84" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E84" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E84" t="s" s="19">
+        <v>135</v>
+      </c>
       <c r="F84" t="b" s="6">
         <v>0</v>
       </c>
       <c r="G84" t="s" s="20">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
@@ -5135,24 +4669,26 @@
       <c r="P84" s="21"/>
     </row>
     <row r="85" ht="13.65" customHeight="1">
-      <c r="A85" t="s" s="4">
-        <v>193</v>
-      </c>
-      <c r="B85" t="s" s="5">
-        <v>194</v>
+      <c r="A85" t="s" s="28">
+        <v>136</v>
+      </c>
+      <c r="B85" t="s" s="4">
+        <v>30</v>
       </c>
       <c r="C85" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D85" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E85" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E85" t="s" s="19">
+        <v>135</v>
+      </c>
       <c r="F85" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="s" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
@@ -5164,18 +4700,1112 @@
       <c r="O85" s="21"/>
       <c r="P85" s="21"/>
     </row>
+    <row r="86" ht="13.65" customHeight="1">
+      <c r="A86" t="s" s="28">
+        <v>137</v>
+      </c>
+      <c r="B86" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C86" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D86" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s" s="19">
+        <v>135</v>
+      </c>
+      <c r="F86" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="21"/>
+    </row>
+    <row r="87" ht="13.65" customHeight="1">
+      <c r="A87" t="s" s="28">
+        <v>138</v>
+      </c>
+      <c r="B87" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C87" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D87" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s" s="19">
+        <v>139</v>
+      </c>
+      <c r="F87" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="21"/>
+    </row>
+    <row r="88" ht="13.65" customHeight="1">
+      <c r="A88" t="s" s="28">
+        <v>140</v>
+      </c>
+      <c r="B88" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C88" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D88" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E88" t="s" s="19">
+        <v>141</v>
+      </c>
+      <c r="F88" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="21"/>
+    </row>
+    <row r="89" ht="13.65" customHeight="1">
+      <c r="A89" t="s" s="28">
+        <v>142</v>
+      </c>
+      <c r="B89" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C89" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D89" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s" s="19">
+        <v>141</v>
+      </c>
+      <c r="F89" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="21"/>
+    </row>
+    <row r="90" ht="13.65" customHeight="1">
+      <c r="A90" t="s" s="28">
+        <v>143</v>
+      </c>
+      <c r="B90" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C90" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D90" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s" s="19">
+        <v>144</v>
+      </c>
+      <c r="F90" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="21"/>
+      <c r="O90" s="21"/>
+      <c r="P90" s="21"/>
+    </row>
+    <row r="91" ht="13.65" customHeight="1">
+      <c r="A91" t="s" s="28">
+        <v>145</v>
+      </c>
+      <c r="B91" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C91" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D91" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E91" s="23"/>
+      <c r="F91" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="21"/>
+      <c r="P91" s="21"/>
+    </row>
+    <row r="92" ht="13.65" customHeight="1">
+      <c r="A92" t="s" s="28">
+        <v>146</v>
+      </c>
+      <c r="B92" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C92" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D92" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E92" s="23"/>
+      <c r="F92" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="21"/>
+      <c r="P92" s="21"/>
+    </row>
+    <row r="93" ht="13.65" customHeight="1">
+      <c r="A93" t="s" s="28">
+        <v>147</v>
+      </c>
+      <c r="B93" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C93" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D93" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E93" s="23"/>
+      <c r="F93" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="21"/>
+    </row>
+    <row r="94" ht="13.65" customHeight="1">
+      <c r="A94" t="s" s="28">
+        <v>148</v>
+      </c>
+      <c r="B94" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C94" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D94" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s" s="19">
+        <v>149</v>
+      </c>
+      <c r="F94" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="21"/>
+      <c r="O94" s="21"/>
+      <c r="P94" s="21"/>
+    </row>
+    <row r="95" ht="13.65" customHeight="1">
+      <c r="A95" t="s" s="28">
+        <v>150</v>
+      </c>
+      <c r="B95" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C95" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D95" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E95" s="23"/>
+      <c r="F95" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="21"/>
+      <c r="N95" s="21"/>
+      <c r="O95" s="21"/>
+      <c r="P95" s="21"/>
+    </row>
+    <row r="96" ht="13.65" customHeight="1">
+      <c r="A96" t="s" s="28">
+        <v>151</v>
+      </c>
+      <c r="B96" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C96" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D96" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E96" s="23"/>
+      <c r="F96" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
+      <c r="M96" s="21"/>
+      <c r="N96" s="21"/>
+      <c r="O96" s="21"/>
+      <c r="P96" s="21"/>
+    </row>
+    <row r="97" ht="13.65" customHeight="1">
+      <c r="A97" t="s" s="28">
+        <v>152</v>
+      </c>
+      <c r="B97" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C97" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D97" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s" s="19">
+        <v>153</v>
+      </c>
+      <c r="F97" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="21"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="21"/>
+      <c r="M97" s="21"/>
+      <c r="N97" s="21"/>
+      <c r="O97" s="21"/>
+      <c r="P97" s="21"/>
+    </row>
+    <row r="98" ht="13.65" customHeight="1">
+      <c r="A98" t="s" s="28">
+        <v>154</v>
+      </c>
+      <c r="B98" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C98" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D98" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E98" s="23"/>
+      <c r="F98" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="21"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="21"/>
+      <c r="M98" s="21"/>
+      <c r="N98" s="21"/>
+      <c r="O98" s="21"/>
+      <c r="P98" s="21"/>
+    </row>
+    <row r="99" ht="13.65" customHeight="1">
+      <c r="A99" t="s" s="28">
+        <v>155</v>
+      </c>
+      <c r="B99" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C99" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D99" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E99" s="23"/>
+      <c r="F99" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21"/>
+      <c r="J99" s="21"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="21"/>
+      <c r="M99" s="21"/>
+      <c r="N99" s="21"/>
+      <c r="O99" s="21"/>
+      <c r="P99" s="21"/>
+    </row>
+    <row r="100" ht="13.65" customHeight="1">
+      <c r="A100" t="s" s="28">
+        <v>156</v>
+      </c>
+      <c r="B100" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C100" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D100" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E100" s="23"/>
+      <c r="F100" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G100" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H100" s="21"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="21"/>
+      <c r="M100" s="21"/>
+      <c r="N100" s="21"/>
+      <c r="O100" s="21"/>
+      <c r="P100" s="21"/>
+    </row>
+    <row r="101" ht="13.65" customHeight="1">
+      <c r="A101" t="s" s="28">
+        <v>157</v>
+      </c>
+      <c r="B101" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C101" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D101" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E101" s="23"/>
+      <c r="F101" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G101" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="21"/>
+      <c r="N101" s="21"/>
+      <c r="O101" s="21"/>
+      <c r="P101" s="21"/>
+    </row>
+    <row r="102" ht="13.65" customHeight="1">
+      <c r="A102" t="s" s="28">
+        <v>158</v>
+      </c>
+      <c r="B102" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C102" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D102" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E102" s="23"/>
+      <c r="F102" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="21"/>
+      <c r="O102" s="21"/>
+      <c r="P102" s="21"/>
+    </row>
+    <row r="103" ht="13.65" customHeight="1">
+      <c r="A103" t="s" s="28">
+        <v>159</v>
+      </c>
+      <c r="B103" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C103" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D103" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E103" s="23"/>
+      <c r="F103" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="21"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="21"/>
+      <c r="O103" s="21"/>
+      <c r="P103" s="21"/>
+    </row>
+    <row r="104" ht="13.65" customHeight="1">
+      <c r="A104" t="s" s="28">
+        <v>160</v>
+      </c>
+      <c r="B104" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C104" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D104" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E104" s="23"/>
+      <c r="F104" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H104" s="21"/>
+      <c r="I104" s="21"/>
+      <c r="J104" s="21"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="21"/>
+      <c r="M104" s="21"/>
+      <c r="N104" s="21"/>
+      <c r="O104" s="21"/>
+      <c r="P104" s="21"/>
+    </row>
+    <row r="105" ht="13.65" customHeight="1">
+      <c r="A105" t="s" s="28">
+        <v>161</v>
+      </c>
+      <c r="B105" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C105" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D105" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E105" s="23"/>
+      <c r="F105" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G105" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="21"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
+      <c r="M105" s="21"/>
+      <c r="N105" s="21"/>
+      <c r="O105" s="21"/>
+      <c r="P105" s="21"/>
+    </row>
+    <row r="106" ht="13.65" customHeight="1">
+      <c r="A106" t="s" s="28">
+        <v>162</v>
+      </c>
+      <c r="B106" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C106" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D106" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E106" s="23"/>
+      <c r="F106" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="21"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="21"/>
+      <c r="M106" s="21"/>
+      <c r="N106" s="21"/>
+      <c r="O106" s="21"/>
+      <c r="P106" s="21"/>
+    </row>
+    <row r="107" ht="13.65" customHeight="1">
+      <c r="A107" t="s" s="28">
+        <v>163</v>
+      </c>
+      <c r="B107" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C107" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D107" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E107" s="23"/>
+      <c r="F107" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G107" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H107" s="21"/>
+      <c r="I107" s="21"/>
+      <c r="J107" s="21"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="21"/>
+      <c r="M107" s="21"/>
+      <c r="N107" s="21"/>
+      <c r="O107" s="21"/>
+      <c r="P107" s="21"/>
+    </row>
+    <row r="108" ht="13.65" customHeight="1">
+      <c r="A108" t="s" s="28">
+        <v>164</v>
+      </c>
+      <c r="B108" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C108" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D108" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E108" s="23"/>
+      <c r="F108" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="21"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="21"/>
+      <c r="M108" s="21"/>
+      <c r="N108" s="21"/>
+      <c r="O108" s="21"/>
+      <c r="P108" s="21"/>
+    </row>
+    <row r="109" ht="13.65" customHeight="1">
+      <c r="A109" t="s" s="28">
+        <v>165</v>
+      </c>
+      <c r="B109" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C109" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D109" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E109" s="23"/>
+      <c r="F109" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G109" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
+      <c r="M109" s="21"/>
+      <c r="N109" s="21"/>
+      <c r="O109" s="21"/>
+      <c r="P109" s="21"/>
+    </row>
+    <row r="110" ht="13.65" customHeight="1">
+      <c r="A110" t="s" s="28">
+        <v>166</v>
+      </c>
+      <c r="B110" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C110" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D110" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E110" s="23"/>
+      <c r="F110" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
+      <c r="M110" s="21"/>
+      <c r="N110" s="21"/>
+      <c r="O110" s="21"/>
+      <c r="P110" s="21"/>
+    </row>
+    <row r="111" ht="13.65" customHeight="1">
+      <c r="A111" t="s" s="28">
+        <v>167</v>
+      </c>
+      <c r="B111" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C111" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D111" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E111" s="23"/>
+      <c r="F111" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H111" s="21"/>
+      <c r="I111" s="21"/>
+      <c r="J111" s="21"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="21"/>
+      <c r="M111" s="21"/>
+      <c r="N111" s="21"/>
+      <c r="O111" s="21"/>
+      <c r="P111" s="21"/>
+    </row>
+    <row r="112" ht="13.65" customHeight="1">
+      <c r="A112" t="s" s="28">
+        <v>168</v>
+      </c>
+      <c r="B112" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C112" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D112" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E112" s="23"/>
+      <c r="F112" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H112" s="21"/>
+      <c r="I112" s="21"/>
+      <c r="J112" s="21"/>
+      <c r="K112" s="21"/>
+      <c r="L112" s="21"/>
+      <c r="M112" s="21"/>
+      <c r="N112" s="21"/>
+      <c r="O112" s="21"/>
+      <c r="P112" s="21"/>
+    </row>
+    <row r="113" ht="13.65" customHeight="1">
+      <c r="A113" t="s" s="28">
+        <v>169</v>
+      </c>
+      <c r="B113" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C113" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D113" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E113" s="23"/>
+      <c r="F113" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G113" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H113" s="21"/>
+      <c r="I113" s="21"/>
+      <c r="J113" s="21"/>
+      <c r="K113" s="21"/>
+      <c r="L113" s="21"/>
+      <c r="M113" s="21"/>
+      <c r="N113" s="21"/>
+      <c r="O113" s="21"/>
+      <c r="P113" s="21"/>
+    </row>
+    <row r="114" ht="13.65" customHeight="1">
+      <c r="A114" t="s" s="28">
+        <v>170</v>
+      </c>
+      <c r="B114" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C114" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D114" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E114" s="23"/>
+      <c r="F114" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H114" s="21"/>
+      <c r="I114" s="21"/>
+      <c r="J114" s="21"/>
+      <c r="K114" s="21"/>
+      <c r="L114" s="21"/>
+      <c r="M114" s="21"/>
+      <c r="N114" s="21"/>
+      <c r="O114" s="21"/>
+      <c r="P114" s="21"/>
+    </row>
+    <row r="115" ht="13.65" customHeight="1">
+      <c r="A115" t="s" s="28">
+        <v>171</v>
+      </c>
+      <c r="B115" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C115" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D115" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E115" s="23"/>
+      <c r="F115" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
+      <c r="J115" s="21"/>
+      <c r="K115" s="21"/>
+      <c r="L115" s="21"/>
+      <c r="M115" s="21"/>
+      <c r="N115" s="21"/>
+      <c r="O115" s="21"/>
+      <c r="P115" s="21"/>
+    </row>
+    <row r="116" ht="13.65" customHeight="1">
+      <c r="A116" t="s" s="28">
+        <v>172</v>
+      </c>
+      <c r="B116" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C116" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D116" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E116" s="23"/>
+      <c r="F116" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H116" s="21"/>
+      <c r="I116" s="21"/>
+      <c r="J116" s="21"/>
+      <c r="K116" s="21"/>
+      <c r="L116" s="21"/>
+      <c r="M116" s="21"/>
+      <c r="N116" s="21"/>
+      <c r="O116" s="21"/>
+      <c r="P116" s="21"/>
+    </row>
+    <row r="117" ht="13.65" customHeight="1">
+      <c r="A117" t="s" s="28">
+        <v>173</v>
+      </c>
+      <c r="B117" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C117" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D117" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E117" s="23"/>
+      <c r="F117" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H117" s="21"/>
+      <c r="I117" s="21"/>
+      <c r="J117" s="21"/>
+      <c r="K117" s="21"/>
+      <c r="L117" s="21"/>
+      <c r="M117" s="21"/>
+      <c r="N117" s="21"/>
+      <c r="O117" s="21"/>
+      <c r="P117" s="21"/>
+    </row>
+    <row r="118" ht="13.65" customHeight="1">
+      <c r="A118" t="s" s="28">
+        <v>174</v>
+      </c>
+      <c r="B118" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C118" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D118" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E118" s="23"/>
+      <c r="F118" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H118" s="21"/>
+      <c r="I118" s="21"/>
+      <c r="J118" s="21"/>
+      <c r="K118" s="21"/>
+      <c r="L118" s="21"/>
+      <c r="M118" s="21"/>
+      <c r="N118" s="21"/>
+      <c r="O118" s="21"/>
+      <c r="P118" s="21"/>
+    </row>
+    <row r="119" ht="13.65" customHeight="1">
+      <c r="A119" t="s" s="28">
+        <v>168</v>
+      </c>
+      <c r="B119" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C119" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D119" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E119" s="23"/>
+      <c r="F119" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H119" s="21"/>
+      <c r="I119" s="21"/>
+      <c r="J119" s="21"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="21"/>
+      <c r="M119" s="21"/>
+      <c r="N119" s="21"/>
+      <c r="O119" s="21"/>
+      <c r="P119" s="21"/>
+    </row>
+    <row r="120" ht="13.65" customHeight="1">
+      <c r="A120" t="s" s="28">
+        <v>175</v>
+      </c>
+      <c r="B120" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C120" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D120" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E120" s="23"/>
+      <c r="F120" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H120" s="21"/>
+      <c r="I120" s="21"/>
+      <c r="J120" s="21"/>
+      <c r="K120" s="21"/>
+      <c r="L120" s="21"/>
+      <c r="M120" s="21"/>
+      <c r="N120" s="21"/>
+      <c r="O120" s="21"/>
+      <c r="P120" s="21"/>
+    </row>
+    <row r="121" ht="13.65" customHeight="1">
+      <c r="A121" t="s" s="28">
+        <v>176</v>
+      </c>
+      <c r="B121" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C121" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D121" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E121" s="23"/>
+      <c r="F121" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G121" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="H121" s="21"/>
+      <c r="I121" s="21"/>
+      <c r="J121" s="21"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="21"/>
+      <c r="M121" s="21"/>
+      <c r="N121" s="21"/>
+      <c r="O121" s="21"/>
+      <c r="P121" s="21"/>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D15 F2:F25 D16 C17:D25 D26 F26:F28 C27:D27 D28 C29:D85 F29:F85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D17 F2:F121 D18 C19:D121">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3 G5:G14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3 G5:G16">
       <formula1>"string,float,integer,date,coordinates (lat,long),coordinates (geoJSON),coordinates (WKT)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G30">
       <formula1>"string,float,integer,date,coordinates (lat,long),coordinates (geoJSON),coordinates (WKT),boolean"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G15:G27 G29:G85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17:G29 G31:G121">
       <formula1>"string,float,integer,date,coordinates (lat,long),coordinates (geoJSON),coordinates (WKT),boolean"</formula1>
     </dataValidation>
   </dataValidations>

--- a/template_spreadsheet.xlsx
+++ b/template_spreadsheet.xlsx
@@ -11,31 +11,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Socorro Dominguez</author>
-  </authors>
-  <commentList>
-    <comment ref="F59" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Clarify again why this is OK to be NULL many times; how is it not the same value as ndb.data.value?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
   <si>
     <t>Column</t>
   </si>
@@ -61,279 +38,370 @@
     <t>ndb.datasets.datasetname</t>
   </si>
   <si>
-    <t>ostracode</t>
-  </si>
-  <si>
     <t>datasettypeid</t>
   </si>
   <si>
-    <t>ndb.datasettypes.datasettypeid</t>
+    <t>ndb.datasettypes.datasettype</t>
+  </si>
+  <si>
+    <t>ostracode surface sample</t>
   </si>
   <si>
     <t>databaseid</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>ndb.datasetdatabases.databasename</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>East Asian Nonmarine Ostracod Database</t>
+  </si>
+  <si>
+    <t>labnumber</t>
+  </si>
+  <si>
+    <t>ndb.samples.labnumber</t>
+  </si>
+  <si>
+    <t>variableelement</t>
+  </si>
+  <si>
+    <t>ndb.variableelements.variableelementid</t>
+  </si>
+  <si>
+    <t>Valve</t>
+  </si>
+  <si>
+    <t>Rowwise</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>FormatOrRange</t>
+  </si>
+  <si>
+    <t>Vocab</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Taxonname</t>
+  </si>
+  <si>
+    <t>Taxonid</t>
+  </si>
+  <si>
+    <t>Unitcolumn</t>
+  </si>
+  <si>
+    <t>Uncertaintycolumn</t>
+  </si>
+  <si>
+    <t>Uncertaintyunitcolumn</t>
+  </si>
+  <si>
+    <t>UncertaintyBasis</t>
+  </si>
+  <si>
+    <t>Site name</t>
+  </si>
+  <si>
+    <t>ndb.sites.sitename</t>
+  </si>
+  <si>
+    <t>If empty, use waterBody</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>—NA—</t>
+  </si>
+  <si>
+    <t>ndb.sites.siteid</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>geodeticDatum</t>
+  </si>
+  <si>
+    <t>decimalLatitude</t>
+  </si>
+  <si>
+    <t>ndb.sites.geog</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>decimalLongitude</t>
+  </si>
+  <si>
+    <t>verbatimElevation</t>
+  </si>
+  <si>
+    <t>ndb.sites.altitude</t>
+  </si>
+  <si>
+    <t>ndb.sites.area</t>
+  </si>
+  <si>
+    <t>verbatimLocality</t>
+  </si>
+  <si>
+    <t>ndb.sites.sitedescription</t>
+  </si>
+  <si>
+    <t>comments*</t>
+  </si>
+  <si>
+    <t>ndb.sites.notes</t>
+  </si>
+  <si>
+    <t>ndb.sites.recdatecreated</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>ndb.sites.recdatemodified</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.core</t>
+  </si>
+  <si>
+    <t>Handle</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.handle</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.colltypeid</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.depenvtid</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.collunitname</t>
+  </si>
+  <si>
+    <t>eventDate</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.colldate</t>
+  </si>
+  <si>
+    <t>%Y-%m-%d</t>
+  </si>
+  <si>
+    <t>ndb.sampleages.age</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.colldevice</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.gpslatitude</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.gpslongitude</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.gpsaltitude</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.gpserror</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.waterdepth</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.substrateid</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.slopeaspect</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.slopeangle</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.location</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.notes</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.geog</t>
+  </si>
+  <si>
+    <t>ndb.analysisunits.analysisunitname</t>
+  </si>
+  <si>
+    <t>ndb.analysisunits.depth</t>
+  </si>
+  <si>
+    <t>ndb.analysisunits.thickness</t>
+  </si>
+  <si>
+    <t>ndb.analysisunits.faciesid</t>
+  </si>
+  <si>
+    <t>ndb.analysisunits.mixed</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>ndb.analysisunits.igsn</t>
+  </si>
+  <si>
+    <t>ndb.analysisunits.notes</t>
+  </si>
+  <si>
+    <t>ndb.analysisunits.position</t>
+  </si>
+  <si>
+    <t>ndb.chronologies.agetypeid</t>
+  </si>
+  <si>
+    <t>ndb.chronologies.contactid</t>
+  </si>
+  <si>
+    <t>ndb.chronologies.isdefault</t>
+  </si>
+  <si>
+    <t>ndb.chronologies.chronologyname</t>
+  </si>
+  <si>
+    <t>ndb.chronologies.dateprepared</t>
+  </si>
+  <si>
+    <t>ndb.chroncontrols.depth</t>
+  </si>
+  <si>
+    <t>ndb.chroncontrols.thickness</t>
+  </si>
+  <si>
+    <t>ndb.chroncontrols.position</t>
+  </si>
+  <si>
+    <t>ndb.chroncontrols.age</t>
+  </si>
+  <si>
+    <t>ndb.chroncontrols.notes</t>
+  </si>
+  <si>
+    <t>ndb.geochroncontrols.geochronid</t>
+  </si>
+  <si>
+    <t>ndb.geochroncontrols.age</t>
+  </si>
+  <si>
+    <t>nameInPaper</t>
+  </si>
+  <si>
+    <t>ndb.datasets.notes</t>
+  </si>
+  <si>
+    <t>Name in paper:</t>
+  </si>
+  <si>
+    <t>Original sample number</t>
+  </si>
+  <si>
+    <t>Original Sample Number:</t>
+  </si>
+  <si>
+    <t>males and females text</t>
+  </si>
+  <si>
+    <t>Males &amp; Females:</t>
+  </si>
+  <si>
+    <t>vegetation*</t>
+  </si>
+  <si>
+    <t>Vegetation:</t>
+  </si>
+  <si>
+    <t>temperature*</t>
+  </si>
+  <si>
+    <t>Temperature:</t>
+  </si>
+  <si>
+    <t>pH*</t>
+  </si>
+  <si>
+    <t>pH:</t>
+  </si>
+  <si>
+    <t>conductivity*</t>
+  </si>
+  <si>
+    <t>Conductivity:</t>
+  </si>
+  <si>
+    <t>salinity*</t>
+  </si>
+  <si>
+    <t>Salinity:</t>
+  </si>
+  <si>
+    <t>dissolved oxygen*</t>
+  </si>
+  <si>
+    <t>Dissolved Oxygen:</t>
+  </si>
+  <si>
+    <t>recordedBy</t>
+  </si>
+  <si>
+    <t>ndb.datasetpis.contactid</t>
+  </si>
+  <si>
+    <t>[‘fixed’]</t>
+  </si>
+  <si>
+    <t>Sample Analyst</t>
+  </si>
+  <si>
+    <t>ndb.sampleanalysts.contactid</t>
+  </si>
+  <si>
+    <t>Dataset Processor</t>
+  </si>
+  <si>
+    <t>ndb.datasetprocessor.contactid</t>
+  </si>
+  <si>
     <t>ndb.datasetdatabases.databaseid</t>
   </si>
   <si>
-    <t>labnumber</t>
-  </si>
-  <si>
-    <t>ndb.samples.labnumber</t>
-  </si>
-  <si>
-    <t>Rowwise</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>FormatOrRange</t>
-  </si>
-  <si>
-    <t>Vocab</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>Taxonname</t>
-  </si>
-  <si>
-    <t>Taxonid</t>
-  </si>
-  <si>
-    <t>Unitcolumn</t>
-  </si>
-  <si>
-    <t>Uncertaintycolumn</t>
-  </si>
-  <si>
-    <t>Uncertaintyunitcolumn</t>
-  </si>
-  <si>
-    <t>UncertaintyBasis</t>
-  </si>
-  <si>
-    <t>Site name</t>
-  </si>
-  <si>
-    <t>ndb.sites.sitename</t>
-  </si>
-  <si>
-    <t>This is spatial overlay/sitename</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>—NA—</t>
-  </si>
-  <si>
-    <t>ndb.sites.siteid</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>geodeticDatum</t>
-  </si>
-  <si>
-    <t>ndb.sites.geog</t>
-  </si>
-  <si>
-    <t>coordinates (lat,long)</t>
-  </si>
-  <si>
-    <t>decimalLatitude</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>decimalLongitude</t>
-  </si>
-  <si>
-    <t>verbatimElevation</t>
-  </si>
-  <si>
-    <t>ndb.sites.altitude</t>
-  </si>
-  <si>
-    <t>ndb.sites.area</t>
-  </si>
-  <si>
-    <t>verbatimLocality</t>
-  </si>
-  <si>
-    <t>ndb.sites.sitedescription</t>
-  </si>
-  <si>
-    <t>ndb.sites.notes</t>
-  </si>
-  <si>
-    <t>ndb.sites.recdatecreated</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>ndb.sites.recdatemodified</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.core</t>
-  </si>
-  <si>
-    <t>Handle</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.handle</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.colltypeid</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.depenvtid</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.collunitname</t>
-  </si>
-  <si>
-    <t>eventDate</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.colldate</t>
-  </si>
-  <si>
-    <t>%Y-%m-%d</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.colldevice</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.gpslatitude</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.gpslongitude</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.gpsaltitude</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.gpserror</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.waterdepth</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.substrateid</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.slopeaspect</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.slopeangle</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.location</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.notes</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.geog</t>
-  </si>
-  <si>
-    <t>ndb.analysisunits.analysisunitname</t>
-  </si>
-  <si>
-    <t>ndb.analysisunits.depth</t>
-  </si>
-  <si>
-    <t>ndb.analysisunits.thickness</t>
-  </si>
-  <si>
-    <t>ndb.analysisunits.faciesid</t>
-  </si>
-  <si>
-    <t>ndb.analysisunits.mixed</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>ndb.analysisunits.igsn</t>
-  </si>
-  <si>
-    <t>ndb.analysisunits.notes</t>
-  </si>
-  <si>
-    <t>ndb.analysisunits.position</t>
-  </si>
-  <si>
-    <t>ndb.chronologies.agetypeid</t>
-  </si>
-  <si>
-    <t>ndb.chronologies.contactid</t>
-  </si>
-  <si>
-    <t>ndb.chronologies.isdefault</t>
-  </si>
-  <si>
-    <t>ndb.chronologies.chronologyname</t>
-  </si>
-  <si>
-    <t>ndb.chronologies.dateprepared</t>
-  </si>
-  <si>
-    <t>ndb.chroncontrols.depth</t>
-  </si>
-  <si>
-    <t>ndb.chroncontrols.thickness</t>
-  </si>
-  <si>
-    <t>ndb.chroncontrols.position</t>
-  </si>
-  <si>
-    <t>ndb.chroncontrols.age</t>
-  </si>
-  <si>
-    <t>ndb.chroncontrols.notes</t>
-  </si>
-  <si>
-    <t>ndb.geochroncontrols.geochronid</t>
-  </si>
-  <si>
-    <t>ndb.geochroncontrols.age</t>
-  </si>
-  <si>
-    <t>ndb.datasets.datasettypeid</t>
-  </si>
-  <si>
-    <t>ndb.datasets.notes</t>
-  </si>
-  <si>
-    <t>ndb.datasettype.datasettype</t>
-  </si>
-  <si>
-    <t>[‘fixed’]</t>
+    <t>ndb.constituentdatabases.database</t>
   </si>
   <si>
     <t>Ostracodes</t>
   </si>
   <si>
-    <t>ndb.datasetpis.contactid</t>
-  </si>
-  <si>
-    <t>ndb.sampleanalysts.contactid</t>
-  </si>
-  <si>
-    <t>ndb.constituentdatabases.database</t>
-  </si>
-  <si>
-    <t>Original sample number</t>
-  </si>
-  <si>
     <t>ndb.samples.samplename</t>
   </si>
   <si>
@@ -355,9 +423,6 @@
     <t>ndb.samples.taxonid</t>
   </si>
   <si>
-    <t>ndb.sampleages.age</t>
-  </si>
-  <si>
     <t>ndb.data.variableelementid</t>
   </si>
   <si>
@@ -391,9 +456,21 @@
     <t>^10.\d{4,9}/[-._;()/:A-Z0-9]+$</t>
   </si>
   <si>
+    <t>locality</t>
+  </si>
+  <si>
     <t>ndb.geopoliticalunits.geopoliticalunit</t>
   </si>
   <si>
+    <t>municipality</t>
+  </si>
+  <si>
+    <t>stateProvince</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
     <t>habitat</t>
   </si>
   <si>
@@ -412,13 +489,10 @@
     <t>typeLocality*</t>
   </si>
   <si>
-    <t>ndb.lakeparameters.depth</t>
-  </si>
-  <si>
     <t>verbatimDepth</t>
   </si>
   <si>
-    <t>This is sampling depth, not lake doepth</t>
+    <t>This is sampling depth, not lake depth</t>
   </si>
   <si>
     <t>order</t>
@@ -466,21 +540,6 @@
     <t>island</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>Note: Validated this programmatically with the example data and get exact matches (or more precise matches)</t>
-  </si>
-  <si>
-    <t>stateProvince</t>
-  </si>
-  <si>
-    <t>municipality</t>
-  </si>
-  <si>
-    <t>locality</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -505,64 +564,13 @@
     <t>substrate*</t>
   </si>
   <si>
-    <t>vegetation*</t>
-  </si>
-  <si>
-    <t>samplingProtocol</t>
-  </si>
-  <si>
-    <t>temperature*</t>
-  </si>
-  <si>
-    <t>pH*</t>
-  </si>
-  <si>
-    <t>conductivity*</t>
-  </si>
-  <si>
-    <t>salinity*</t>
-  </si>
-  <si>
-    <t>dissolved oxygen*</t>
-  </si>
-  <si>
-    <t>typeStatus</t>
-  </si>
-  <si>
-    <t>institutionCode</t>
-  </si>
-  <si>
-    <t>collectionID</t>
-  </si>
-  <si>
-    <t>catalogNumber</t>
-  </si>
-  <si>
     <t>basisOfRecord</t>
   </si>
   <si>
-    <t>nameInPaper</t>
-  </si>
-  <si>
-    <t>figured?*</t>
-  </si>
-  <si>
-    <t>storage*</t>
-  </si>
-  <si>
-    <t>comments*</t>
-  </si>
-  <si>
     <t>females</t>
   </si>
   <si>
     <t>males</t>
-  </si>
-  <si>
-    <t>males and females text</t>
-  </si>
-  <si>
-    <t>recordedBy</t>
   </si>
   <si>
     <t>waterBody</t>
@@ -609,6 +617,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="13"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
@@ -617,11 +630,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="6">
@@ -651,7 +659,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -772,7 +780,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -799,6 +807,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -830,7 +841,7 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -839,13 +850,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -854,10 +868,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -881,14 +892,11 @@
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ff3b3b3b"/>
       <rgbColor rgb="ffdddddd"/>
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1920,7 +1928,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1965,17 +1973,15 @@
       <c r="D2" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E2" t="s" s="7">
-        <v>8</v>
-      </c>
+      <c r="E2" s="7"/>
       <c r="F2" s="8"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
       <c r="A3" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="5">
         <v>9</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>10</v>
       </c>
       <c r="C3" t="b" s="6">
         <v>1</v>
@@ -1984,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" s="8"/>
     </row>
@@ -1992,7 +1998,7 @@
       <c r="A4" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B4" t="s" s="9">
         <v>12</v>
       </c>
       <c r="C4" t="b" s="6">
@@ -2001,15 +2007,17 @@
       <c r="D4" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" t="s" s="7">
+        <v>13</v>
+      </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="b" s="6">
         <v>0</v>
@@ -2021,44 +2029,62 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
+      <c r="A6" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="C6" t="b" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" ht="13.65" customHeight="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2076,22 +2102,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P121"/>
+  <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21" style="18" customWidth="1"/>
-    <col min="2" max="2" width="28" style="18" customWidth="1"/>
-    <col min="3" max="3" width="9.67188" style="18" customWidth="1"/>
-    <col min="4" max="4" width="10.1719" style="18" customWidth="1"/>
-    <col min="5" max="5" width="24.8516" style="18" customWidth="1"/>
-    <col min="6" max="6" width="9.17188" style="18" customWidth="1"/>
-    <col min="7" max="13" width="24.8516" style="18" customWidth="1"/>
-    <col min="14" max="14" width="24.5" style="18" customWidth="1"/>
-    <col min="15" max="16" width="31.5" style="18" customWidth="1"/>
-    <col min="17" max="16384" width="11.5" style="18" customWidth="1"/>
+    <col min="1" max="1" width="21" style="19" customWidth="1"/>
+    <col min="2" max="2" width="28" style="19" customWidth="1"/>
+    <col min="3" max="3" width="9.67188" style="19" customWidth="1"/>
+    <col min="4" max="4" width="10.1719" style="19" customWidth="1"/>
+    <col min="5" max="5" width="90.3516" style="19" customWidth="1"/>
+    <col min="6" max="6" width="9.17188" style="19" customWidth="1"/>
+    <col min="7" max="13" width="24.8516" style="19" customWidth="1"/>
+    <col min="14" max="14" width="24.5" style="19" customWidth="1"/>
+    <col min="15" max="16" width="31.5" style="19" customWidth="1"/>
+    <col min="17" max="16384" width="11.5" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.6" customHeight="1">
@@ -2111,45 +2137,45 @@
         <v>5</v>
       </c>
       <c r="F1" t="s" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L1" t="s" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M1" t="s" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O1" t="s" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P1" t="s" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="13.65" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C2" t="b" s="6">
         <v>1</v>
@@ -2157,31 +2183,31 @@
       <c r="D2" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E2" t="s" s="19">
-        <v>28</v>
+      <c r="E2" t="s" s="20">
+        <v>32</v>
       </c>
       <c r="F2" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G2" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
+      <c r="G2" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="5">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C3" t="b" s="6">
         <v>0</v>
@@ -2189,28 +2215,28 @@
       <c r="D3" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="23"/>
       <c r="F3" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G3" t="s" s="20">
-        <v>32</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="G3" t="s" s="21">
+        <v>36</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s" s="4">
         <v>34</v>
       </c>
       <c r="C4" t="b" s="6">
@@ -2219,29 +2245,29 @@
       <c r="D4" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="24"/>
       <c r="F4" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G4" t="s" s="20">
-        <v>35</v>
-      </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
+      <c r="G4" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s" s="5">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C5" t="b" s="6">
         <v>1</v>
@@ -2249,29 +2275,29 @@
       <c r="D5" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="24"/>
       <c r="F5" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G5" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="G5" t="s" s="21">
+        <v>40</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s" s="5">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C6" t="b" s="6">
         <v>1</v>
@@ -2279,59 +2305,59 @@
       <c r="D6" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="24"/>
       <c r="F6" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G6" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
+      <c r="G6" t="s" s="21">
+        <v>40</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
       <c r="A7" t="s" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s" s="5">
+        <v>43</v>
+      </c>
+      <c r="C7" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s" s="21">
         <v>40</v>
       </c>
-      <c r="C7" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
       <c r="A8" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s" s="5">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C8" t="b" s="6">
         <v>0</v>
@@ -2339,29 +2365,29 @@
       <c r="D8" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="23"/>
       <c r="F8" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G8" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
+      <c r="G8" t="s" s="21">
+        <v>40</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
       <c r="A9" t="s" s="4">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s" s="5">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C9" t="b" s="6">
         <v>0</v>
@@ -2369,29 +2395,29 @@
       <c r="D9" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="24"/>
       <c r="F9" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G9" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
+      <c r="G9" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" t="s" s="4">
-        <v>30</v>
+      <c r="A10" t="s" s="26">
+        <v>47</v>
       </c>
       <c r="B10" t="s" s="5">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C10" t="b" s="6">
         <v>0</v>
@@ -2399,29 +2425,29 @@
       <c r="D10" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="23"/>
       <c r="F10" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G10" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
+      <c r="G10" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
     </row>
     <row r="11" ht="13.65" customHeight="1">
       <c r="A11" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s" s="5">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C11" t="b" s="6">
         <v>0</v>
@@ -2429,29 +2455,29 @@
       <c r="D11" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="23"/>
       <c r="F11" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G11" t="s" s="20">
-        <v>46</v>
-      </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
+      <c r="G11" t="s" s="21">
+        <v>50</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
     </row>
     <row r="12" ht="13.65" customHeight="1">
       <c r="A12" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s" s="5">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C12" t="b" s="6">
         <v>0</v>
@@ -2459,29 +2485,29 @@
       <c r="D12" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="23"/>
       <c r="F12" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G12" t="s" s="20">
-        <v>46</v>
-      </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
+      <c r="G12" t="s" s="21">
+        <v>50</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
     </row>
     <row r="13" ht="13.65" customHeight="1">
       <c r="A13" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s" s="5">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C13" t="b" s="6">
         <v>0</v>
@@ -2489,29 +2515,29 @@
       <c r="D13" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="23"/>
       <c r="F13" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G13" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
+      <c r="G13" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
     </row>
     <row r="14" ht="13.65" customHeight="1">
       <c r="A14" t="s" s="4">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="5">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C14" t="b" s="6">
         <v>0</v>
@@ -2519,29 +2545,29 @@
       <c r="D14" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E14" s="22"/>
+      <c r="E14" s="23"/>
       <c r="F14" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G14" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
+      <c r="G14" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
     </row>
     <row r="15" ht="13.65" customHeight="1">
       <c r="A15" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s" s="5">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C15" t="b" s="6">
         <v>0</v>
@@ -2549,29 +2575,29 @@
       <c r="D15" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="23"/>
       <c r="F15" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G15" t="s" s="20">
-        <v>32</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
+      <c r="G15" t="s" s="21">
+        <v>36</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
     </row>
     <row r="16" ht="13.65" customHeight="1">
       <c r="A16" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s" s="5">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C16" t="b" s="6">
         <v>0</v>
@@ -2579,29 +2605,29 @@
       <c r="D16" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E16" s="22"/>
+      <c r="E16" s="23"/>
       <c r="F16" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G16" t="s" s="20">
-        <v>32</v>
-      </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
+      <c r="G16" t="s" s="21">
+        <v>36</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
     </row>
     <row r="17" ht="13.65" customHeight="1">
       <c r="A17" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s" s="5">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C17" t="b" s="6">
         <v>0</v>
@@ -2609,29 +2635,29 @@
       <c r="D17" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="23"/>
       <c r="F17" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G17" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
+      <c r="G17" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
     </row>
     <row r="18" ht="13.65" customHeight="1">
       <c r="A18" t="s" s="4">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s" s="5">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C18" t="b" s="6">
         <v>0</v>
@@ -2639,31 +2665,31 @@
       <c r="D18" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E18" s="23"/>
+      <c r="E18" s="24"/>
       <c r="F18" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G18" t="s" s="20">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s" s="20">
-        <v>56</v>
-      </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
+      <c r="G18" t="s" s="21">
+        <v>50</v>
+      </c>
+      <c r="H18" t="s" s="21">
+        <v>60</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
     </row>
     <row r="19" ht="13.65" customHeight="1">
       <c r="A19" t="s" s="4">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s" s="5">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C19" t="b" s="6">
         <v>0</v>
@@ -2671,29 +2697,31 @@
       <c r="D19" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E19" s="22"/>
+      <c r="E19" s="24"/>
       <c r="F19" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G19" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
+      <c r="G19" t="s" s="21">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s" s="21">
+        <v>60</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
     </row>
     <row r="20" ht="13.65" customHeight="1">
       <c r="A20" t="s" s="4">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s" s="5">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" t="b" s="6">
         <v>0</v>
@@ -2701,29 +2729,31 @@
       <c r="D20" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="24"/>
       <c r="F20" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G20" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
+      <c r="G20" t="s" s="21">
+        <v>50</v>
+      </c>
+      <c r="H20" t="s" s="21">
+        <v>60</v>
+      </c>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
     </row>
     <row r="21" ht="13.65" customHeight="1">
       <c r="A21" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s" s="5">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C21" t="b" s="6">
         <v>0</v>
@@ -2731,29 +2761,29 @@
       <c r="D21" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E21" s="22"/>
+      <c r="E21" s="23"/>
       <c r="F21" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G21" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
+      <c r="G21" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
     </row>
     <row r="22" ht="13.65" customHeight="1">
       <c r="A22" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s" s="5">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C22" t="b" s="6">
         <v>0</v>
@@ -2761,29 +2791,29 @@
       <c r="D22" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E22" s="22"/>
+      <c r="E22" s="23"/>
       <c r="F22" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G22" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
+      <c r="G22" t="s" s="21">
+        <v>40</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
     </row>
     <row r="23" ht="13.65" customHeight="1">
       <c r="A23" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s" s="5">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C23" t="b" s="6">
         <v>0</v>
@@ -2791,29 +2821,29 @@
       <c r="D23" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E23" s="22"/>
+      <c r="E23" s="23"/>
       <c r="F23" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G23" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
+      <c r="G23" t="s" s="21">
+        <v>40</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
     </row>
     <row r="24" ht="13.65" customHeight="1">
       <c r="A24" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s" s="5">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C24" t="b" s="6">
         <v>0</v>
@@ -2821,29 +2851,29 @@
       <c r="D24" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E24" s="22"/>
+      <c r="E24" s="23"/>
       <c r="F24" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G24" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
+      <c r="G24" t="s" s="21">
+        <v>40</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
     </row>
     <row r="25" ht="13.65" customHeight="1">
       <c r="A25" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s" s="5">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C25" t="b" s="6">
         <v>0</v>
@@ -2851,29 +2881,29 @@
       <c r="D25" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E25" s="22"/>
+      <c r="E25" s="23"/>
       <c r="F25" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G25" t="s" s="20">
-        <v>32</v>
-      </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
+      <c r="G25" t="s" s="21">
+        <v>40</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
     </row>
     <row r="26" ht="13.65" customHeight="1">
       <c r="A26" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s" s="5">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C26" t="b" s="6">
         <v>0</v>
@@ -2881,29 +2911,29 @@
       <c r="D26" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E26" s="22"/>
+      <c r="E26" s="23"/>
       <c r="F26" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G26" t="s" s="20">
-        <v>32</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
+      <c r="G26" t="s" s="21">
+        <v>40</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
     </row>
     <row r="27" ht="13.65" customHeight="1">
       <c r="A27" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s" s="5">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C27" t="b" s="6">
         <v>0</v>
@@ -2911,29 +2941,29 @@
       <c r="D27" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E27" s="22"/>
+      <c r="E27" s="23"/>
       <c r="F27" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G27" t="s" s="20">
-        <v>32</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
+      <c r="G27" t="s" s="21">
+        <v>36</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
     </row>
     <row r="28" ht="13.65" customHeight="1">
       <c r="A28" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s" s="5">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C28" t="b" s="6">
         <v>0</v>
@@ -2941,29 +2971,29 @@
       <c r="D28" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E28" s="22"/>
+      <c r="E28" s="23"/>
       <c r="F28" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G28" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
+      <c r="G28" t="s" s="21">
+        <v>36</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
     </row>
     <row r="29" ht="13.65" customHeight="1">
       <c r="A29" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s" s="5">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C29" t="b" s="6">
         <v>0</v>
@@ -2971,29 +3001,29 @@
       <c r="D29" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E29" s="22"/>
+      <c r="E29" s="23"/>
       <c r="F29" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G29" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
+      <c r="G29" t="s" s="21">
+        <v>36</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
     </row>
     <row r="30" ht="13.65" customHeight="1">
       <c r="A30" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s" s="5">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C30" t="b" s="6">
         <v>0</v>
@@ -3001,29 +3031,29 @@
       <c r="D30" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="23"/>
       <c r="F30" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G30" t="s" s="20">
-        <v>35</v>
-      </c>
-      <c r="H30" s="21"/>
+      <c r="G30" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H30" s="22"/>
       <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
     </row>
     <row r="31" ht="13.65" customHeight="1">
       <c r="A31" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s" s="5">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C31" t="b" s="6">
         <v>0</v>
@@ -3031,29 +3061,29 @@
       <c r="D31" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E31" s="22"/>
+      <c r="E31" s="23"/>
       <c r="F31" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G31" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
+      <c r="G31" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
     </row>
     <row r="32" ht="13.65" customHeight="1">
       <c r="A32" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s" s="5">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C32" t="b" s="6">
         <v>0</v>
@@ -3061,29 +3091,29 @@
       <c r="D32" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E32" s="22"/>
+      <c r="E32" s="23"/>
       <c r="F32" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G32" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
+      <c r="G32" t="s" s="21">
+        <v>40</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
     </row>
     <row r="33" ht="13.65" customHeight="1">
       <c r="A33" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s" s="5">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C33" t="b" s="6">
         <v>0</v>
@@ -3091,29 +3121,29 @@
       <c r="D33" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E33" s="22"/>
+      <c r="E33" s="23"/>
       <c r="F33" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G33" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
+      <c r="G33" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
     </row>
     <row r="34" ht="13.65" customHeight="1">
       <c r="A34" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s" s="5">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C34" t="b" s="6">
         <v>0</v>
@@ -3121,29 +3151,29 @@
       <c r="D34" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E34" s="22"/>
+      <c r="E34" s="23"/>
       <c r="F34" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G34" t="s" s="20">
-        <v>32</v>
-      </c>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
+      <c r="G34" t="s" s="21">
+        <v>40</v>
+      </c>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
     </row>
     <row r="35" ht="13.65" customHeight="1">
       <c r="A35" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s" s="5">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C35" t="b" s="6">
         <v>0</v>
@@ -3151,29 +3181,29 @@
       <c r="D35" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E35" s="22"/>
+      <c r="E35" s="23"/>
       <c r="F35" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G35" t="s" s="20">
-        <v>74</v>
-      </c>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
+      <c r="G35" t="s" s="21">
+        <v>40</v>
+      </c>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
     </row>
     <row r="36" ht="13.65" customHeight="1">
       <c r="A36" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s" s="5">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C36" t="b" s="6">
         <v>0</v>
@@ -3181,29 +3211,29 @@
       <c r="D36" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E36" s="22"/>
+      <c r="E36" s="23"/>
       <c r="F36" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G36" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
+      <c r="G36" t="s" s="21">
+        <v>36</v>
+      </c>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
     </row>
     <row r="37" ht="13.65" customHeight="1">
       <c r="A37" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s" s="5">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C37" t="b" s="6">
         <v>0</v>
@@ -3211,29 +3241,29 @@
       <c r="D37" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E37" s="22"/>
+      <c r="E37" s="23"/>
       <c r="F37" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G37" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
+      <c r="G37" t="s" s="21">
+        <v>79</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
     </row>
     <row r="38" ht="13.65" customHeight="1">
       <c r="A38" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s" s="5">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C38" t="b" s="6">
         <v>0</v>
@@ -3241,29 +3271,29 @@
       <c r="D38" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E38" s="22"/>
+      <c r="E38" s="23"/>
       <c r="F38" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G38" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H38" s="21"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
+      <c r="G38" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
     </row>
     <row r="39" ht="13.65" customHeight="1">
       <c r="A39" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s" s="5">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C39" t="b" s="6">
         <v>0</v>
@@ -3271,29 +3301,29 @@
       <c r="D39" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E39" s="22"/>
+      <c r="E39" s="23"/>
       <c r="F39" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G39" t="s" s="20">
-        <v>32</v>
-      </c>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
+      <c r="G39" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
     </row>
     <row r="40" ht="13.65" customHeight="1">
       <c r="A40" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s" s="5">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C40" t="b" s="6">
         <v>0</v>
@@ -3301,29 +3331,29 @@
       <c r="D40" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E40" s="22"/>
+      <c r="E40" s="23"/>
       <c r="F40" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G40" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H40" s="21"/>
+      <c r="G40" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H40" s="22"/>
       <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
     </row>
     <row r="41" ht="13.65" customHeight="1">
       <c r="A41" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s" s="5">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C41" t="b" s="6">
         <v>0</v>
@@ -3331,29 +3361,29 @@
       <c r="D41" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E41" s="22"/>
+      <c r="E41" s="23"/>
       <c r="F41" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G41" t="s" s="20">
-        <v>74</v>
-      </c>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
+      <c r="G41" t="s" s="21">
+        <v>36</v>
+      </c>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
     </row>
     <row r="42" ht="13.65" customHeight="1">
       <c r="A42" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s" s="5">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C42" t="b" s="6">
         <v>0</v>
@@ -3361,29 +3391,29 @@
       <c r="D42" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E42" s="22"/>
+      <c r="E42" s="23"/>
       <c r="F42" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G42" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
+      <c r="G42" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
     </row>
     <row r="43" ht="13.65" customHeight="1">
       <c r="A43" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s" s="5">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C43" t="b" s="6">
         <v>0</v>
@@ -3391,29 +3421,29 @@
       <c r="D43" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E43" s="22"/>
+      <c r="E43" s="23"/>
       <c r="F43" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G43" t="s" s="20">
-        <v>46</v>
-      </c>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
+      <c r="G43" t="s" s="21">
+        <v>79</v>
+      </c>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
     </row>
     <row r="44" ht="13.65" customHeight="1">
       <c r="A44" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s" s="5">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C44" t="b" s="6">
         <v>0</v>
@@ -3421,29 +3451,29 @@
       <c r="D44" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E44" s="22"/>
+      <c r="E44" s="23"/>
       <c r="F44" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G44" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
+      <c r="G44" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
     </row>
     <row r="45" ht="13.65" customHeight="1">
       <c r="A45" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s" s="5">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C45" t="b" s="6">
         <v>0</v>
@@ -3451,29 +3481,29 @@
       <c r="D45" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E45" s="22"/>
+      <c r="E45" s="23"/>
       <c r="F45" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G45" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
+      <c r="G45" t="s" s="21">
+        <v>50</v>
+      </c>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
     </row>
     <row r="46" ht="13.65" customHeight="1">
       <c r="A46" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s" s="5">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C46" t="b" s="6">
         <v>0</v>
@@ -3481,29 +3511,29 @@
       <c r="D46" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E46" s="22"/>
+      <c r="E46" s="23"/>
       <c r="F46" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G46" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H46" s="21"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
+      <c r="G46" t="s" s="21">
+        <v>40</v>
+      </c>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
     </row>
     <row r="47" ht="13.65" customHeight="1">
       <c r="A47" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s" s="5">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C47" t="b" s="6">
         <v>0</v>
@@ -3511,29 +3541,29 @@
       <c r="D47" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E47" s="22"/>
+      <c r="E47" s="23"/>
       <c r="F47" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G47" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="21"/>
+      <c r="G47" t="s" s="21">
+        <v>40</v>
+      </c>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
     </row>
     <row r="48" ht="13.65" customHeight="1">
       <c r="A48" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B48" t="s" s="5">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C48" t="b" s="6">
         <v>0</v>
@@ -3541,29 +3571,29 @@
       <c r="D48" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E48" s="22"/>
+      <c r="E48" s="23"/>
       <c r="F48" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G48" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H48" s="21"/>
+      <c r="G48" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H48" s="22"/>
       <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
     </row>
     <row r="49" ht="13.65" customHeight="1">
       <c r="A49" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s" s="5">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C49" t="b" s="6">
         <v>0</v>
@@ -3571,29 +3601,29 @@
       <c r="D49" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E49" s="22"/>
+      <c r="E49" s="23"/>
       <c r="F49" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G49" t="s" s="20">
-        <v>32</v>
-      </c>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="21"/>
+      <c r="G49" t="s" s="21">
+        <v>40</v>
+      </c>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
       <c r="M49" s="21"/>
       <c r="N49" s="21"/>
       <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
+      <c r="P49" s="22"/>
     </row>
     <row r="50" ht="13.65" customHeight="1">
       <c r="A50" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B50" t="s" s="5">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C50" t="b" s="6">
         <v>0</v>
@@ -3601,29 +3631,29 @@
       <c r="D50" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E50" s="22"/>
+      <c r="E50" s="23"/>
       <c r="F50" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G50" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
+      <c r="G50" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
     </row>
     <row r="51" ht="13.65" customHeight="1">
       <c r="A51" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B51" t="s" s="5">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C51" t="b" s="6">
         <v>0</v>
@@ -3631,29 +3661,29 @@
       <c r="D51" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E51" s="22"/>
+      <c r="E51" s="23"/>
       <c r="F51" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G51" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
+      <c r="G51" t="s" s="21">
+        <v>36</v>
+      </c>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
     </row>
     <row r="52" ht="13.65" customHeight="1">
       <c r="A52" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B52" t="s" s="5">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C52" t="b" s="6">
         <v>0</v>
@@ -3661,29 +3691,29 @@
       <c r="D52" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E52" s="22"/>
+      <c r="E52" s="23"/>
       <c r="F52" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G52" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
+      <c r="G52" t="s" s="21">
+        <v>40</v>
+      </c>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="22"/>
       <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
     </row>
     <row r="53" ht="13.65" customHeight="1">
       <c r="A53" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s" s="5">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C53" t="b" s="6">
         <v>0</v>
@@ -3691,29 +3721,29 @@
       <c r="D53" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E53" s="22"/>
+      <c r="E53" s="23"/>
       <c r="F53" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G53" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
+      <c r="G53" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
     </row>
     <row r="54" ht="13.65" customHeight="1">
       <c r="A54" t="s" s="4">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s" s="5">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C54" t="b" s="6">
         <v>0</v>
@@ -3721,33 +3751,31 @@
       <c r="D54" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E54" s="22"/>
+      <c r="E54" t="s" s="20">
+        <v>97</v>
+      </c>
       <c r="F54" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G54" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H54" s="21"/>
-      <c r="I54" t="s" s="20">
-        <v>93</v>
-      </c>
-      <c r="J54" t="s" s="20">
-        <v>94</v>
-      </c>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
+      <c r="G54" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
     </row>
     <row r="55" ht="13.65" customHeight="1">
       <c r="A55" t="s" s="4">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="B55" t="s" s="5">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C55" t="b" s="6">
         <v>0</v>
@@ -3755,28 +3783,28 @@
       <c r="D55" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E55" s="22"/>
+      <c r="E55" t="s" s="20">
+        <v>99</v>
+      </c>
       <c r="F55" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G55" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H55" s="21"/>
-      <c r="I55" t="s" s="20">
-        <v>93</v>
-      </c>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
+      <c r="G55" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
     </row>
     <row r="56" ht="13.65" customHeight="1">
       <c r="A56" t="s" s="4">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B56" t="s" s="5">
         <v>96</v>
@@ -3787,31 +3815,31 @@
       <c r="D56" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E56" s="22"/>
+      <c r="E56" t="s" s="20">
+        <v>101</v>
+      </c>
       <c r="F56" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G56" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H56" s="21"/>
-      <c r="I56" t="s" s="20">
-        <v>93</v>
-      </c>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="G56" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
     </row>
     <row r="57" ht="13.65" customHeight="1">
-      <c r="A57" t="s" s="4">
-        <v>30</v>
+      <c r="A57" t="s" s="26">
+        <v>102</v>
       </c>
       <c r="B57" t="s" s="5">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C57" t="b" s="6">
         <v>0</v>
@@ -3819,29 +3847,31 @@
       <c r="D57" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E57" s="22"/>
+      <c r="E57" t="s" s="20">
+        <v>103</v>
+      </c>
       <c r="F57" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G57" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="21"/>
-      <c r="P57" s="21"/>
+      <c r="G57" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
     </row>
     <row r="58" ht="13.65" customHeight="1">
-      <c r="A58" t="s" s="4">
-        <v>30</v>
+      <c r="A58" t="s" s="26">
+        <v>104</v>
       </c>
       <c r="B58" t="s" s="5">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C58" t="b" s="6">
         <v>0</v>
@@ -3849,33 +3879,31 @@
       <c r="D58" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E58" s="22"/>
+      <c r="E58" t="s" s="20">
+        <v>105</v>
+      </c>
       <c r="F58" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G58" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H58" s="21"/>
-      <c r="I58" t="s" s="20">
-        <v>93</v>
-      </c>
-      <c r="J58" t="s" s="20">
-        <v>94</v>
-      </c>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="21"/>
-      <c r="P58" s="21"/>
+      <c r="G58" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H58" s="22"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
     </row>
     <row r="59" ht="13.65" customHeight="1">
-      <c r="A59" t="s" s="4">
-        <v>98</v>
+      <c r="A59" t="s" s="26">
+        <v>106</v>
       </c>
       <c r="B59" t="s" s="5">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C59" t="b" s="6">
         <v>0</v>
@@ -3883,31 +3911,31 @@
       <c r="D59" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E59" t="s" s="19">
-        <v>100</v>
+      <c r="E59" t="s" s="20">
+        <v>107</v>
       </c>
       <c r="F59" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G59" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H59" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="G59" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H59" s="22"/>
       <c r="I59" s="21"/>
       <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
-      <c r="M59" s="21"/>
-      <c r="N59" s="21"/>
-      <c r="O59" s="21"/>
-      <c r="P59" s="21"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
     </row>
     <row r="60" ht="13.65" customHeight="1">
-      <c r="A60" t="s" s="4">
-        <v>30</v>
+      <c r="A60" t="s" s="26">
+        <v>108</v>
       </c>
       <c r="B60" t="s" s="5">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C60" t="b" s="6">
         <v>0</v>
@@ -3915,29 +3943,31 @@
       <c r="D60" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E60" s="22"/>
+      <c r="E60" t="s" s="20">
+        <v>109</v>
+      </c>
       <c r="F60" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G60" t="s" s="20">
-        <v>46</v>
-      </c>
-      <c r="H60" s="21"/>
+      <c r="G60" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H60" s="22"/>
       <c r="I60" s="21"/>
       <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="21"/>
-      <c r="P60" s="21"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="22"/>
     </row>
     <row r="61" ht="13.65" customHeight="1">
-      <c r="A61" t="s" s="4">
-        <v>30</v>
+      <c r="A61" t="s" s="26">
+        <v>110</v>
       </c>
       <c r="B61" t="s" s="5">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C61" t="b" s="6">
         <v>0</v>
@@ -3945,29 +3975,31 @@
       <c r="D61" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E61" s="22"/>
+      <c r="E61" t="s" s="20">
+        <v>111</v>
+      </c>
       <c r="F61" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G61" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H61" s="21"/>
+      <c r="G61" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H61" s="22"/>
       <c r="I61" s="21"/>
       <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="21"/>
-      <c r="P61" s="21"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
     </row>
     <row r="62" ht="13.65" customHeight="1">
-      <c r="A62" t="s" s="4">
-        <v>30</v>
+      <c r="A62" t="s" s="26">
+        <v>112</v>
       </c>
       <c r="B62" t="s" s="5">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C62" t="b" s="6">
         <v>0</v>
@@ -3975,29 +4007,31 @@
       <c r="D62" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E62" s="22"/>
+      <c r="E62" t="s" s="20">
+        <v>113</v>
+      </c>
       <c r="F62" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G62" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H62" s="21"/>
+      <c r="G62" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H62" s="22"/>
       <c r="I62" s="21"/>
       <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="21"/>
-      <c r="P62" s="21"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="22"/>
     </row>
     <row r="63" ht="13.65" customHeight="1">
       <c r="A63" t="s" s="4">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="B63" t="s" s="5">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C63" t="b" s="6">
         <v>0</v>
@@ -4005,29 +4039,31 @@
       <c r="D63" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E63" s="22"/>
+      <c r="E63" s="23"/>
       <c r="F63" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G63" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="21"/>
-      <c r="O63" s="21"/>
-      <c r="P63" s="21"/>
+      <c r="G63" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H63" s="22"/>
+      <c r="I63" t="s" s="21">
+        <v>116</v>
+      </c>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
     </row>
     <row r="64" ht="13.65" customHeight="1">
       <c r="A64" t="s" s="4">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="B64" t="s" s="5">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C64" t="b" s="6">
         <v>0</v>
@@ -4035,29 +4071,31 @@
       <c r="D64" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E64" s="22"/>
+      <c r="E64" s="23"/>
       <c r="F64" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G64" t="s" s="20">
-        <v>46</v>
-      </c>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="21"/>
-      <c r="P64" s="21"/>
+      <c r="G64" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H64" s="22"/>
+      <c r="I64" t="s" s="21">
+        <v>116</v>
+      </c>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
     </row>
     <row r="65" ht="13.65" customHeight="1">
       <c r="A65" t="s" s="4">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="B65" t="s" s="5">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C65" t="b" s="6">
         <v>0</v>
@@ -4065,29 +4103,29 @@
       <c r="D65" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E65" s="22"/>
+      <c r="E65" s="23"/>
       <c r="F65" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G65" t="s" s="20">
-        <v>32</v>
-      </c>
-      <c r="H65" s="21"/>
+      <c r="G65" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H65" s="22"/>
       <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="21"/>
-      <c r="O65" s="21"/>
-      <c r="P65" s="21"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="22"/>
     </row>
     <row r="66" ht="13.65" customHeight="1">
       <c r="A66" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B66" t="s" s="5">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C66" t="b" s="6">
         <v>0</v>
@@ -4095,29 +4133,29 @@
       <c r="D66" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E66" s="22"/>
+      <c r="E66" s="23"/>
       <c r="F66" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G66" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="21"/>
+      <c r="G66" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
     </row>
     <row r="67" ht="13.65" customHeight="1">
       <c r="A67" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B67" t="s" s="5">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C67" t="b" s="6">
         <v>0</v>
@@ -4125,29 +4163,33 @@
       <c r="D67" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E67" s="22"/>
+      <c r="E67" s="23"/>
       <c r="F67" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G67" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
+      <c r="G67" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H67" s="22"/>
+      <c r="I67" t="s" s="21">
+        <v>116</v>
+      </c>
+      <c r="J67" t="s" s="21">
+        <v>123</v>
+      </c>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
     </row>
     <row r="68" ht="13.65" customHeight="1">
       <c r="A68" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B68" t="s" s="5">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C68" t="b" s="6">
         <v>0</v>
@@ -4155,29 +4197,31 @@
       <c r="D68" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E68" s="22"/>
+      <c r="E68" t="s" s="20">
+        <v>125</v>
+      </c>
       <c r="F68" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G68" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
-      <c r="P68" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="G68" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="22"/>
     </row>
     <row r="69" ht="13.65" customHeight="1">
       <c r="A69" t="s" s="4">
-        <v>109</v>
-      </c>
-      <c r="B69" t="s" s="27">
-        <v>110</v>
+        <v>34</v>
+      </c>
+      <c r="B69" t="s" s="5">
+        <v>126</v>
       </c>
       <c r="C69" t="b" s="6">
         <v>0</v>
@@ -4185,31 +4229,29 @@
       <c r="D69" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E69" t="s" s="19">
-        <v>111</v>
-      </c>
+      <c r="E69" s="23"/>
       <c r="F69" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G69" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H69" s="20"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="21"/>
-      <c r="P69" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="G69" t="s" s="21">
+        <v>50</v>
+      </c>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
     </row>
     <row r="70" ht="13.65" customHeight="1">
       <c r="A70" t="s" s="4">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="B70" t="s" s="5">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="C70" t="b" s="6">
         <v>0</v>
@@ -4219,29 +4261,27 @@
       </c>
       <c r="E70" s="23"/>
       <c r="F70" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G70" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="H70" t="s" s="20">
-        <v>114</v>
-      </c>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="20"/>
-      <c r="N70" s="21"/>
-      <c r="O70" s="21"/>
-      <c r="P70" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="G70" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="22"/>
+      <c r="P70" s="22"/>
     </row>
     <row r="71" ht="13.65" customHeight="1">
       <c r="A71" t="s" s="4">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="B71" t="s" s="5">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C71" t="b" s="6">
         <v>0</v>
@@ -4253,29 +4293,25 @@
       <c r="F71" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G71" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H71" t="s" s="20">
-        <v>117</v>
-      </c>
-      <c r="I71" t="s" s="20">
-        <v>93</v>
-      </c>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21"/>
-      <c r="M71" s="21"/>
-      <c r="N71" s="21"/>
-      <c r="O71" s="21"/>
-      <c r="P71" s="21"/>
+      <c r="G71" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="22"/>
     </row>
     <row r="72" ht="13.65" customHeight="1">
       <c r="A72" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B72" t="s" s="5">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C72" t="b" s="6">
         <v>0</v>
@@ -4283,31 +4319,29 @@
       <c r="D72" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E72" s="22"/>
+      <c r="E72" s="23"/>
       <c r="F72" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G72" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H72" s="21"/>
-      <c r="I72" t="s" s="20">
-        <v>93</v>
-      </c>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="21"/>
-      <c r="O72" s="21"/>
-      <c r="P72" s="21"/>
+      <c r="G72" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
     </row>
     <row r="73" ht="13.65" customHeight="1">
       <c r="A73" t="s" s="4">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="B73" t="s" s="5">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C73" t="b" s="6">
         <v>0</v>
@@ -4319,27 +4353,25 @@
       <c r="F73" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G73" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H73" s="21"/>
-      <c r="I73" t="s" s="20">
-        <v>93</v>
-      </c>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
-      <c r="O73" s="21"/>
-      <c r="P73" s="21"/>
+      <c r="G73" t="s" s="21">
+        <v>50</v>
+      </c>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
     </row>
     <row r="74" ht="13.65" customHeight="1">
       <c r="A74" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B74" t="s" s="5">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C74" t="b" s="6">
         <v>0</v>
@@ -4347,29 +4379,29 @@
       <c r="D74" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E74" s="22"/>
+      <c r="E74" s="23"/>
       <c r="F74" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G74" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
-      <c r="O74" s="21"/>
-      <c r="P74" s="21"/>
+      <c r="G74" t="s" s="21">
+        <v>36</v>
+      </c>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="22"/>
     </row>
     <row r="75" ht="13.65" customHeight="1">
       <c r="A75" t="s" s="4">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="B75" t="s" s="5">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C75" t="b" s="6">
         <v>0</v>
@@ -4381,25 +4413,25 @@
       <c r="F75" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G75" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="21"/>
-      <c r="O75" s="21"/>
-      <c r="P75" s="21"/>
+      <c r="G75" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="22"/>
     </row>
     <row r="76" ht="13.65" customHeight="1">
-      <c r="A76" t="s" s="28">
-        <v>124</v>
-      </c>
-      <c r="B76" t="s" s="28">
-        <v>125</v>
+      <c r="A76" t="s" s="4">
+        <v>34</v>
+      </c>
+      <c r="B76" t="s" s="5">
+        <v>132</v>
       </c>
       <c r="C76" t="b" s="6">
         <v>0</v>
@@ -4409,27 +4441,27 @@
       </c>
       <c r="E76" s="23"/>
       <c r="F76" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G76" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
-      <c r="O76" s="21"/>
-      <c r="P76" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="G76" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="22"/>
     </row>
     <row r="77" ht="13.65" customHeight="1">
-      <c r="A77" t="s" s="28">
-        <v>126</v>
-      </c>
-      <c r="B77" t="s" s="28">
-        <v>125</v>
+      <c r="A77" t="s" s="4">
+        <v>133</v>
+      </c>
+      <c r="B77" t="s" s="29">
+        <v>134</v>
       </c>
       <c r="C77" t="b" s="6">
         <v>0</v>
@@ -4437,31 +4469,31 @@
       <c r="D77" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E77" t="s" s="19">
-        <v>127</v>
+      <c r="E77" t="s" s="20">
+        <v>135</v>
       </c>
       <c r="F77" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="G77" t="s" s="20">
-        <v>29</v>
+      <c r="G77" t="s" s="21">
+        <v>33</v>
       </c>
       <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
       <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
+      <c r="L77" s="25"/>
       <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
-      <c r="O77" s="21"/>
-      <c r="P77" s="21"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="22"/>
+      <c r="P77" s="22"/>
     </row>
     <row r="78" ht="13.65" customHeight="1">
-      <c r="A78" t="s" s="28">
-        <v>128</v>
-      </c>
-      <c r="B78" t="s" s="4">
-        <v>30</v>
+      <c r="A78" t="s" s="4">
+        <v>136</v>
+      </c>
+      <c r="B78" t="s" s="5">
+        <v>137</v>
       </c>
       <c r="C78" t="b" s="6">
         <v>0</v>
@@ -4469,29 +4501,31 @@
       <c r="D78" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E78" s="23"/>
+      <c r="E78" s="24"/>
       <c r="F78" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G78" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="G78" t="s" s="21">
+        <v>40</v>
+      </c>
+      <c r="H78" t="s" s="21">
+        <v>138</v>
+      </c>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
       <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
+      <c r="L78" s="25"/>
       <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
-      <c r="O78" s="21"/>
-      <c r="P78" s="21"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="22"/>
+      <c r="P78" s="22"/>
     </row>
     <row r="79" ht="13.65" customHeight="1">
-      <c r="A79" t="s" s="28">
-        <v>129</v>
-      </c>
-      <c r="B79" t="s" s="4">
-        <v>30</v>
+      <c r="A79" t="s" s="4">
+        <v>139</v>
+      </c>
+      <c r="B79" t="s" s="5">
+        <v>140</v>
       </c>
       <c r="C79" t="b" s="6">
         <v>0</v>
@@ -4499,29 +4533,33 @@
       <c r="D79" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E79" s="23"/>
+      <c r="E79" s="24"/>
       <c r="F79" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G79" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="21"/>
-      <c r="L79" s="21"/>
-      <c r="M79" s="21"/>
-      <c r="N79" s="21"/>
-      <c r="O79" s="21"/>
-      <c r="P79" s="21"/>
+      <c r="G79" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H79" t="s" s="21">
+        <v>141</v>
+      </c>
+      <c r="I79" t="s" s="21">
+        <v>116</v>
+      </c>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="22"/>
+      <c r="P79" s="22"/>
     </row>
     <row r="80" ht="13.65" customHeight="1">
-      <c r="A80" t="s" s="28">
-        <v>130</v>
-      </c>
-      <c r="B80" t="s" s="4">
-        <v>30</v>
+      <c r="A80" t="s" s="4">
+        <v>142</v>
+      </c>
+      <c r="B80" t="s" s="5">
+        <v>143</v>
       </c>
       <c r="C80" t="b" s="6">
         <v>0</v>
@@ -4533,115 +4571,117 @@
       <c r="F80" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G80" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H80" s="21"/>
-      <c r="I80" s="21"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="21"/>
-      <c r="M80" s="21"/>
-      <c r="N80" s="21"/>
-      <c r="O80" s="21"/>
-      <c r="P80" s="21"/>
+      <c r="G80" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H80" s="22"/>
+      <c r="I80" t="s" s="21">
+        <v>116</v>
+      </c>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="22"/>
+      <c r="O80" s="22"/>
+      <c r="P80" s="22"/>
     </row>
     <row r="81" ht="13.65" customHeight="1">
-      <c r="A81" t="s" s="28">
-        <v>131</v>
-      </c>
-      <c r="B81" t="s" s="4">
-        <v>30</v>
+      <c r="A81" t="s" s="4">
+        <v>144</v>
+      </c>
+      <c r="B81" t="s" s="5">
+        <v>143</v>
       </c>
       <c r="C81" t="b" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="E81" s="23"/>
+        <v>1</v>
+      </c>
+      <c r="E81" s="24"/>
       <c r="F81" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G81" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H81" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="G81" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H81" s="22"/>
       <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="21"/>
-      <c r="M81" s="21"/>
-      <c r="N81" s="21"/>
-      <c r="O81" s="21"/>
-      <c r="P81" s="21"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="22"/>
+      <c r="P81" s="22"/>
     </row>
     <row r="82" ht="13.65" customHeight="1">
-      <c r="A82" t="s" s="28">
-        <v>132</v>
-      </c>
-      <c r="B82" t="s" s="4">
-        <v>30</v>
+      <c r="A82" t="s" s="4">
+        <v>145</v>
+      </c>
+      <c r="B82" t="s" s="5">
+        <v>143</v>
       </c>
       <c r="C82" t="b" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="E82" s="23"/>
+        <v>1</v>
+      </c>
+      <c r="E82" s="24"/>
       <c r="F82" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G82" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H82" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="G82" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H82" s="22"/>
       <c r="I82" s="21"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="21"/>
-      <c r="O82" s="21"/>
-      <c r="P82" s="21"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="22"/>
+      <c r="P82" s="22"/>
     </row>
     <row r="83" ht="13.65" customHeight="1">
-      <c r="A83" t="s" s="28">
-        <v>133</v>
-      </c>
-      <c r="B83" t="s" s="4">
-        <v>30</v>
+      <c r="A83" t="s" s="4">
+        <v>146</v>
+      </c>
+      <c r="B83" t="s" s="5">
+        <v>143</v>
       </c>
       <c r="C83" t="b" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="E83" s="23"/>
+        <v>1</v>
+      </c>
+      <c r="E83" s="24"/>
       <c r="F83" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G83" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H83" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="G83" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H83" s="22"/>
       <c r="I83" s="21"/>
-      <c r="J83" s="21"/>
-      <c r="K83" s="21"/>
-      <c r="L83" s="21"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="21"/>
-      <c r="O83" s="21"/>
-      <c r="P83" s="21"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="22"/>
+      <c r="P83" s="22"/>
     </row>
     <row r="84" ht="13.65" customHeight="1">
-      <c r="A84" t="s" s="28">
-        <v>134</v>
-      </c>
-      <c r="B84" t="s" s="4">
-        <v>30</v>
+      <c r="A84" t="s" s="4">
+        <v>147</v>
+      </c>
+      <c r="B84" t="s" s="5">
+        <v>148</v>
       </c>
       <c r="C84" t="b" s="6">
         <v>0</v>
@@ -4649,31 +4689,31 @@
       <c r="D84" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E84" t="s" s="19">
-        <v>135</v>
-      </c>
+      <c r="E84" s="24"/>
       <c r="F84" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G84" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="21"/>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="21"/>
-      <c r="O84" s="21"/>
-      <c r="P84" s="21"/>
+      <c r="G84" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H84" s="22"/>
+      <c r="I84" t="s" s="21">
+        <v>116</v>
+      </c>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="22"/>
+      <c r="P84" s="22"/>
     </row>
     <row r="85" ht="13.65" customHeight="1">
-      <c r="A85" t="s" s="28">
-        <v>136</v>
-      </c>
-      <c r="B85" t="s" s="4">
-        <v>30</v>
+      <c r="A85" t="s" s="4">
+        <v>34</v>
+      </c>
+      <c r="B85" t="s" s="5">
+        <v>149</v>
       </c>
       <c r="C85" t="b" s="6">
         <v>0</v>
@@ -4681,31 +4721,29 @@
       <c r="D85" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E85" t="s" s="19">
-        <v>135</v>
-      </c>
+      <c r="E85" s="23"/>
       <c r="F85" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G85" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="21"/>
-      <c r="O85" s="21"/>
-      <c r="P85" s="21"/>
+      <c r="G85" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="22"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="22"/>
+      <c r="O85" s="22"/>
+      <c r="P85" s="22"/>
     </row>
     <row r="86" ht="13.65" customHeight="1">
-      <c r="A86" t="s" s="28">
-        <v>137</v>
-      </c>
-      <c r="B86" t="s" s="4">
-        <v>30</v>
+      <c r="A86" t="s" s="4">
+        <v>150</v>
+      </c>
+      <c r="B86" t="s" s="5">
+        <v>151</v>
       </c>
       <c r="C86" t="b" s="6">
         <v>0</v>
@@ -4713,31 +4751,29 @@
       <c r="D86" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E86" t="s" s="19">
-        <v>135</v>
-      </c>
+      <c r="E86" s="24"/>
       <c r="F86" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G86" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="21"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="21"/>
-      <c r="P86" s="21"/>
+      <c r="G86" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="22"/>
+      <c r="O86" s="22"/>
+      <c r="P86" s="22"/>
     </row>
     <row r="87" ht="13.65" customHeight="1">
-      <c r="A87" t="s" s="28">
-        <v>138</v>
+      <c r="A87" t="s" s="26">
+        <v>152</v>
       </c>
       <c r="B87" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C87" t="b" s="6">
         <v>0</v>
@@ -4745,31 +4781,29 @@
       <c r="D87" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E87" t="s" s="19">
-        <v>139</v>
-      </c>
+      <c r="E87" s="24"/>
       <c r="F87" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G87" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="21"/>
-      <c r="M87" s="21"/>
-      <c r="N87" s="21"/>
-      <c r="O87" s="21"/>
-      <c r="P87" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="G87" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="22"/>
+      <c r="P87" s="22"/>
     </row>
     <row r="88" ht="13.65" customHeight="1">
-      <c r="A88" t="s" s="28">
-        <v>140</v>
+      <c r="A88" t="s" s="26">
+        <v>153</v>
       </c>
       <c r="B88" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C88" t="b" s="6">
         <v>0</v>
@@ -4777,31 +4811,31 @@
       <c r="D88" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E88" t="s" s="19">
-        <v>141</v>
+      <c r="E88" t="s" s="20">
+        <v>154</v>
       </c>
       <c r="F88" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G88" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
-      <c r="J88" s="21"/>
-      <c r="K88" s="21"/>
-      <c r="L88" s="21"/>
-      <c r="M88" s="21"/>
-      <c r="N88" s="21"/>
-      <c r="O88" s="21"/>
-      <c r="P88" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="G88" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="22"/>
+      <c r="O88" s="22"/>
+      <c r="P88" s="22"/>
     </row>
     <row r="89" ht="13.65" customHeight="1">
-      <c r="A89" t="s" s="28">
-        <v>142</v>
+      <c r="A89" t="s" s="26">
+        <v>155</v>
       </c>
       <c r="B89" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C89" t="b" s="6">
         <v>0</v>
@@ -4809,31 +4843,29 @@
       <c r="D89" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E89" t="s" s="19">
-        <v>141</v>
-      </c>
+      <c r="E89" s="24"/>
       <c r="F89" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G89" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H89" s="21"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="21"/>
-      <c r="M89" s="21"/>
-      <c r="N89" s="21"/>
-      <c r="O89" s="21"/>
-      <c r="P89" s="21"/>
+      <c r="G89" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="22"/>
+      <c r="P89" s="22"/>
     </row>
     <row r="90" ht="13.65" customHeight="1">
-      <c r="A90" t="s" s="28">
-        <v>143</v>
+      <c r="A90" t="s" s="26">
+        <v>156</v>
       </c>
       <c r="B90" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C90" t="b" s="6">
         <v>0</v>
@@ -4841,31 +4873,29 @@
       <c r="D90" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E90" t="s" s="19">
-        <v>144</v>
-      </c>
+      <c r="E90" s="24"/>
       <c r="F90" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G90" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="21"/>
-      <c r="M90" s="21"/>
-      <c r="N90" s="21"/>
-      <c r="O90" s="21"/>
-      <c r="P90" s="21"/>
+      <c r="G90" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="22"/>
+      <c r="O90" s="22"/>
+      <c r="P90" s="22"/>
     </row>
     <row r="91" ht="13.65" customHeight="1">
-      <c r="A91" t="s" s="28">
-        <v>145</v>
+      <c r="A91" t="s" s="26">
+        <v>157</v>
       </c>
       <c r="B91" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C91" t="b" s="6">
         <v>0</v>
@@ -4873,29 +4903,29 @@
       <c r="D91" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E91" s="23"/>
+      <c r="E91" s="24"/>
       <c r="F91" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G91" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H91" s="21"/>
-      <c r="I91" s="21"/>
-      <c r="J91" s="21"/>
-      <c r="K91" s="21"/>
-      <c r="L91" s="21"/>
-      <c r="M91" s="21"/>
-      <c r="N91" s="21"/>
-      <c r="O91" s="21"/>
-      <c r="P91" s="21"/>
+      <c r="G91" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="22"/>
+      <c r="O91" s="22"/>
+      <c r="P91" s="22"/>
     </row>
     <row r="92" ht="13.65" customHeight="1">
-      <c r="A92" t="s" s="28">
-        <v>146</v>
+      <c r="A92" t="s" s="26">
+        <v>158</v>
       </c>
       <c r="B92" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C92" t="b" s="6">
         <v>0</v>
@@ -4903,29 +4933,29 @@
       <c r="D92" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E92" s="23"/>
+      <c r="E92" s="24"/>
       <c r="F92" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G92" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H92" s="21"/>
-      <c r="I92" s="21"/>
-      <c r="J92" s="21"/>
-      <c r="K92" s="21"/>
-      <c r="L92" s="21"/>
-      <c r="M92" s="21"/>
-      <c r="N92" s="21"/>
-      <c r="O92" s="21"/>
-      <c r="P92" s="21"/>
+      <c r="G92" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="22"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="22"/>
+      <c r="O92" s="22"/>
+      <c r="P92" s="22"/>
     </row>
     <row r="93" ht="13.65" customHeight="1">
-      <c r="A93" t="s" s="28">
-        <v>147</v>
+      <c r="A93" t="s" s="26">
+        <v>159</v>
       </c>
       <c r="B93" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C93" t="b" s="6">
         <v>0</v>
@@ -4933,29 +4963,29 @@
       <c r="D93" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E93" s="23"/>
+      <c r="E93" s="24"/>
       <c r="F93" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G93" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H93" s="21"/>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="21"/>
-      <c r="L93" s="21"/>
-      <c r="M93" s="21"/>
-      <c r="N93" s="21"/>
-      <c r="O93" s="21"/>
-      <c r="P93" s="21"/>
+      <c r="G93" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="22"/>
+      <c r="M93" s="22"/>
+      <c r="N93" s="22"/>
+      <c r="O93" s="22"/>
+      <c r="P93" s="22"/>
     </row>
     <row r="94" ht="13.65" customHeight="1">
-      <c r="A94" t="s" s="28">
-        <v>148</v>
+      <c r="A94" t="s" s="26">
+        <v>160</v>
       </c>
       <c r="B94" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C94" t="b" s="6">
         <v>0</v>
@@ -4963,31 +4993,29 @@
       <c r="D94" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E94" t="s" s="19">
-        <v>149</v>
-      </c>
+      <c r="E94" s="24"/>
       <c r="F94" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G94" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H94" s="21"/>
-      <c r="I94" s="21"/>
-      <c r="J94" s="21"/>
-      <c r="K94" s="21"/>
-      <c r="L94" s="21"/>
-      <c r="M94" s="21"/>
-      <c r="N94" s="21"/>
-      <c r="O94" s="21"/>
-      <c r="P94" s="21"/>
+      <c r="G94" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="22"/>
+      <c r="M94" s="22"/>
+      <c r="N94" s="22"/>
+      <c r="O94" s="22"/>
+      <c r="P94" s="22"/>
     </row>
     <row r="95" ht="13.65" customHeight="1">
-      <c r="A95" t="s" s="28">
-        <v>150</v>
+      <c r="A95" t="s" s="26">
+        <v>161</v>
       </c>
       <c r="B95" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C95" t="b" s="6">
         <v>0</v>
@@ -4995,29 +5023,31 @@
       <c r="D95" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E95" s="23"/>
+      <c r="E95" t="s" s="20">
+        <v>162</v>
+      </c>
       <c r="F95" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G95" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H95" s="21"/>
-      <c r="I95" s="21"/>
-      <c r="J95" s="21"/>
-      <c r="K95" s="21"/>
-      <c r="L95" s="21"/>
-      <c r="M95" s="21"/>
-      <c r="N95" s="21"/>
-      <c r="O95" s="21"/>
-      <c r="P95" s="21"/>
+      <c r="G95" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H95" s="22"/>
+      <c r="I95" s="22"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="22"/>
+      <c r="M95" s="22"/>
+      <c r="N95" s="22"/>
+      <c r="O95" s="22"/>
+      <c r="P95" s="22"/>
     </row>
     <row r="96" ht="13.65" customHeight="1">
-      <c r="A96" t="s" s="28">
-        <v>151</v>
+      <c r="A96" t="s" s="26">
+        <v>163</v>
       </c>
       <c r="B96" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C96" t="b" s="6">
         <v>0</v>
@@ -5025,29 +5055,31 @@
       <c r="D96" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E96" s="23"/>
+      <c r="E96" t="s" s="20">
+        <v>162</v>
+      </c>
       <c r="F96" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G96" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H96" s="21"/>
-      <c r="I96" s="21"/>
-      <c r="J96" s="21"/>
-      <c r="K96" s="21"/>
-      <c r="L96" s="21"/>
-      <c r="M96" s="21"/>
-      <c r="N96" s="21"/>
-      <c r="O96" s="21"/>
-      <c r="P96" s="21"/>
+      <c r="G96" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H96" s="22"/>
+      <c r="I96" s="22"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="22"/>
+      <c r="L96" s="22"/>
+      <c r="M96" s="22"/>
+      <c r="N96" s="22"/>
+      <c r="O96" s="22"/>
+      <c r="P96" s="22"/>
     </row>
     <row r="97" ht="13.65" customHeight="1">
-      <c r="A97" t="s" s="28">
-        <v>152</v>
+      <c r="A97" t="s" s="26">
+        <v>164</v>
       </c>
       <c r="B97" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C97" t="b" s="6">
         <v>0</v>
@@ -5055,31 +5087,31 @@
       <c r="D97" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E97" t="s" s="19">
-        <v>153</v>
+      <c r="E97" t="s" s="20">
+        <v>162</v>
       </c>
       <c r="F97" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G97" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H97" s="21"/>
-      <c r="I97" s="21"/>
-      <c r="J97" s="21"/>
-      <c r="K97" s="21"/>
-      <c r="L97" s="21"/>
-      <c r="M97" s="21"/>
-      <c r="N97" s="21"/>
-      <c r="O97" s="21"/>
-      <c r="P97" s="21"/>
+      <c r="G97" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H97" s="22"/>
+      <c r="I97" s="22"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="22"/>
+      <c r="L97" s="22"/>
+      <c r="M97" s="22"/>
+      <c r="N97" s="22"/>
+      <c r="O97" s="22"/>
+      <c r="P97" s="22"/>
     </row>
     <row r="98" ht="13.65" customHeight="1">
-      <c r="A98" t="s" s="28">
-        <v>154</v>
+      <c r="A98" t="s" s="26">
+        <v>165</v>
       </c>
       <c r="B98" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C98" t="b" s="6">
         <v>0</v>
@@ -5087,29 +5119,31 @@
       <c r="D98" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E98" s="23"/>
+      <c r="E98" t="s" s="20">
+        <v>166</v>
+      </c>
       <c r="F98" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G98" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H98" s="21"/>
-      <c r="I98" s="21"/>
-      <c r="J98" s="21"/>
-      <c r="K98" s="21"/>
-      <c r="L98" s="21"/>
-      <c r="M98" s="21"/>
-      <c r="N98" s="21"/>
-      <c r="O98" s="21"/>
-      <c r="P98" s="21"/>
+      <c r="G98" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="22"/>
+      <c r="L98" s="22"/>
+      <c r="M98" s="22"/>
+      <c r="N98" s="22"/>
+      <c r="O98" s="22"/>
+      <c r="P98" s="22"/>
     </row>
     <row r="99" ht="13.65" customHeight="1">
-      <c r="A99" t="s" s="28">
-        <v>155</v>
+      <c r="A99" t="s" s="26">
+        <v>167</v>
       </c>
       <c r="B99" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C99" t="b" s="6">
         <v>0</v>
@@ -5117,29 +5151,31 @@
       <c r="D99" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E99" s="23"/>
+      <c r="E99" t="s" s="20">
+        <v>168</v>
+      </c>
       <c r="F99" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G99" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H99" s="21"/>
-      <c r="I99" s="21"/>
-      <c r="J99" s="21"/>
-      <c r="K99" s="21"/>
-      <c r="L99" s="21"/>
-      <c r="M99" s="21"/>
-      <c r="N99" s="21"/>
-      <c r="O99" s="21"/>
-      <c r="P99" s="21"/>
+      <c r="G99" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="22"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="22"/>
     </row>
     <row r="100" ht="13.65" customHeight="1">
-      <c r="A100" t="s" s="28">
-        <v>156</v>
+      <c r="A100" t="s" s="26">
+        <v>169</v>
       </c>
       <c r="B100" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C100" t="b" s="6">
         <v>0</v>
@@ -5147,29 +5183,31 @@
       <c r="D100" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E100" s="23"/>
+      <c r="E100" t="s" s="20">
+        <v>168</v>
+      </c>
       <c r="F100" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G100" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H100" s="21"/>
-      <c r="I100" s="21"/>
-      <c r="J100" s="21"/>
-      <c r="K100" s="21"/>
-      <c r="L100" s="21"/>
-      <c r="M100" s="21"/>
-      <c r="N100" s="21"/>
-      <c r="O100" s="21"/>
-      <c r="P100" s="21"/>
+      <c r="G100" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H100" s="22"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="22"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="22"/>
+      <c r="O100" s="22"/>
+      <c r="P100" s="22"/>
     </row>
     <row r="101" ht="13.65" customHeight="1">
-      <c r="A101" t="s" s="28">
-        <v>157</v>
+      <c r="A101" t="s" s="26">
+        <v>170</v>
       </c>
       <c r="B101" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C101" t="b" s="6">
         <v>0</v>
@@ -5177,29 +5215,31 @@
       <c r="D101" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E101" s="23"/>
+      <c r="E101" t="s" s="20">
+        <v>171</v>
+      </c>
       <c r="F101" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G101" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H101" s="21"/>
-      <c r="I101" s="21"/>
-      <c r="J101" s="21"/>
-      <c r="K101" s="21"/>
-      <c r="L101" s="21"/>
-      <c r="M101" s="21"/>
-      <c r="N101" s="21"/>
-      <c r="O101" s="21"/>
-      <c r="P101" s="21"/>
+      <c r="G101" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H101" s="22"/>
+      <c r="I101" s="22"/>
+      <c r="J101" s="22"/>
+      <c r="K101" s="22"/>
+      <c r="L101" s="22"/>
+      <c r="M101" s="22"/>
+      <c r="N101" s="22"/>
+      <c r="O101" s="22"/>
+      <c r="P101" s="22"/>
     </row>
     <row r="102" ht="13.65" customHeight="1">
-      <c r="A102" t="s" s="28">
-        <v>158</v>
+      <c r="A102" t="s" s="26">
+        <v>172</v>
       </c>
       <c r="B102" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C102" t="b" s="6">
         <v>0</v>
@@ -5207,29 +5247,29 @@
       <c r="D102" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E102" s="23"/>
+      <c r="E102" s="24"/>
       <c r="F102" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G102" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H102" s="21"/>
-      <c r="I102" s="21"/>
-      <c r="J102" s="21"/>
-      <c r="K102" s="21"/>
-      <c r="L102" s="21"/>
-      <c r="M102" s="21"/>
-      <c r="N102" s="21"/>
-      <c r="O102" s="21"/>
-      <c r="P102" s="21"/>
+      <c r="G102" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H102" s="22"/>
+      <c r="I102" s="22"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="22"/>
+      <c r="L102" s="22"/>
+      <c r="M102" s="22"/>
+      <c r="N102" s="22"/>
+      <c r="O102" s="22"/>
+      <c r="P102" s="22"/>
     </row>
     <row r="103" ht="13.65" customHeight="1">
-      <c r="A103" t="s" s="28">
-        <v>159</v>
+      <c r="A103" t="s" s="26">
+        <v>173</v>
       </c>
       <c r="B103" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C103" t="b" s="6">
         <v>0</v>
@@ -5237,29 +5277,29 @@
       <c r="D103" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E103" s="23"/>
+      <c r="E103" s="24"/>
       <c r="F103" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G103" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H103" s="21"/>
-      <c r="I103" s="21"/>
-      <c r="J103" s="21"/>
-      <c r="K103" s="21"/>
-      <c r="L103" s="21"/>
-      <c r="M103" s="21"/>
-      <c r="N103" s="21"/>
-      <c r="O103" s="21"/>
-      <c r="P103" s="21"/>
+      <c r="G103" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="22"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="22"/>
+      <c r="N103" s="22"/>
+      <c r="O103" s="22"/>
+      <c r="P103" s="22"/>
     </row>
     <row r="104" ht="13.65" customHeight="1">
-      <c r="A104" t="s" s="28">
-        <v>160</v>
+      <c r="A104" t="s" s="26">
+        <v>174</v>
       </c>
       <c r="B104" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C104" t="b" s="6">
         <v>0</v>
@@ -5267,29 +5307,31 @@
       <c r="D104" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E104" s="23"/>
+      <c r="E104" t="s" s="20">
+        <v>175</v>
+      </c>
       <c r="F104" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G104" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H104" s="21"/>
-      <c r="I104" s="21"/>
-      <c r="J104" s="21"/>
-      <c r="K104" s="21"/>
-      <c r="L104" s="21"/>
-      <c r="M104" s="21"/>
-      <c r="N104" s="21"/>
-      <c r="O104" s="21"/>
-      <c r="P104" s="21"/>
+      <c r="G104" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H104" s="22"/>
+      <c r="I104" s="22"/>
+      <c r="J104" s="22"/>
+      <c r="K104" s="22"/>
+      <c r="L104" s="22"/>
+      <c r="M104" s="22"/>
+      <c r="N104" s="22"/>
+      <c r="O104" s="22"/>
+      <c r="P104" s="22"/>
     </row>
     <row r="105" ht="13.65" customHeight="1">
-      <c r="A105" t="s" s="28">
-        <v>161</v>
+      <c r="A105" t="s" s="26">
+        <v>176</v>
       </c>
       <c r="B105" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C105" t="b" s="6">
         <v>0</v>
@@ -5297,29 +5339,29 @@
       <c r="D105" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E105" s="23"/>
+      <c r="E105" s="24"/>
       <c r="F105" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G105" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H105" s="21"/>
-      <c r="I105" s="21"/>
-      <c r="J105" s="21"/>
-      <c r="K105" s="21"/>
-      <c r="L105" s="21"/>
-      <c r="M105" s="21"/>
-      <c r="N105" s="21"/>
-      <c r="O105" s="21"/>
-      <c r="P105" s="21"/>
+      <c r="G105" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H105" s="22"/>
+      <c r="I105" s="22"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="22"/>
+      <c r="L105" s="22"/>
+      <c r="M105" s="22"/>
+      <c r="N105" s="22"/>
+      <c r="O105" s="22"/>
+      <c r="P105" s="22"/>
     </row>
     <row r="106" ht="13.65" customHeight="1">
-      <c r="A106" t="s" s="28">
-        <v>162</v>
+      <c r="A106" t="s" s="26">
+        <v>177</v>
       </c>
       <c r="B106" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C106" t="b" s="6">
         <v>0</v>
@@ -5327,29 +5369,29 @@
       <c r="D106" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E106" s="23"/>
+      <c r="E106" s="24"/>
       <c r="F106" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G106" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H106" s="21"/>
-      <c r="I106" s="21"/>
-      <c r="J106" s="21"/>
-      <c r="K106" s="21"/>
-      <c r="L106" s="21"/>
-      <c r="M106" s="21"/>
-      <c r="N106" s="21"/>
-      <c r="O106" s="21"/>
-      <c r="P106" s="21"/>
+      <c r="G106" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H106" s="22"/>
+      <c r="I106" s="22"/>
+      <c r="J106" s="22"/>
+      <c r="K106" s="22"/>
+      <c r="L106" s="22"/>
+      <c r="M106" s="22"/>
+      <c r="N106" s="22"/>
+      <c r="O106" s="22"/>
+      <c r="P106" s="22"/>
     </row>
     <row r="107" ht="13.65" customHeight="1">
-      <c r="A107" t="s" s="28">
-        <v>163</v>
+      <c r="A107" t="s" s="26">
+        <v>178</v>
       </c>
       <c r="B107" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C107" t="b" s="6">
         <v>0</v>
@@ -5357,29 +5399,29 @@
       <c r="D107" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E107" s="23"/>
+      <c r="E107" s="24"/>
       <c r="F107" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G107" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H107" s="21"/>
-      <c r="I107" s="21"/>
-      <c r="J107" s="21"/>
-      <c r="K107" s="21"/>
-      <c r="L107" s="21"/>
-      <c r="M107" s="21"/>
-      <c r="N107" s="21"/>
-      <c r="O107" s="21"/>
-      <c r="P107" s="21"/>
+      <c r="G107" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H107" s="22"/>
+      <c r="I107" s="22"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="22"/>
+      <c r="M107" s="22"/>
+      <c r="N107" s="22"/>
+      <c r="O107" s="22"/>
+      <c r="P107" s="22"/>
     </row>
     <row r="108" ht="13.65" customHeight="1">
-      <c r="A108" t="s" s="28">
-        <v>164</v>
+      <c r="A108" t="s" s="26">
+        <v>179</v>
       </c>
       <c r="B108" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C108" t="b" s="6">
         <v>0</v>
@@ -5387,29 +5429,29 @@
       <c r="D108" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E108" s="23"/>
+      <c r="E108" s="24"/>
       <c r="F108" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G108" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H108" s="21"/>
-      <c r="I108" s="21"/>
-      <c r="J108" s="21"/>
-      <c r="K108" s="21"/>
-      <c r="L108" s="21"/>
-      <c r="M108" s="21"/>
-      <c r="N108" s="21"/>
-      <c r="O108" s="21"/>
-      <c r="P108" s="21"/>
+      <c r="G108" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H108" s="22"/>
+      <c r="I108" s="22"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="22"/>
+      <c r="L108" s="22"/>
+      <c r="M108" s="22"/>
+      <c r="N108" s="22"/>
+      <c r="O108" s="22"/>
+      <c r="P108" s="22"/>
     </row>
     <row r="109" ht="13.65" customHeight="1">
-      <c r="A109" t="s" s="28">
-        <v>165</v>
+      <c r="A109" t="s" s="26">
+        <v>180</v>
       </c>
       <c r="B109" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C109" t="b" s="6">
         <v>0</v>
@@ -5417,29 +5459,29 @@
       <c r="D109" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E109" s="23"/>
+      <c r="E109" s="24"/>
       <c r="F109" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G109" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H109" s="21"/>
-      <c r="I109" s="21"/>
-      <c r="J109" s="21"/>
-      <c r="K109" s="21"/>
-      <c r="L109" s="21"/>
-      <c r="M109" s="21"/>
-      <c r="N109" s="21"/>
-      <c r="O109" s="21"/>
-      <c r="P109" s="21"/>
+      <c r="G109" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H109" s="22"/>
+      <c r="I109" s="22"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="22"/>
+      <c r="L109" s="22"/>
+      <c r="M109" s="22"/>
+      <c r="N109" s="22"/>
+      <c r="O109" s="22"/>
+      <c r="P109" s="22"/>
     </row>
     <row r="110" ht="13.65" customHeight="1">
-      <c r="A110" t="s" s="28">
-        <v>166</v>
+      <c r="A110" t="s" s="26">
+        <v>181</v>
       </c>
       <c r="B110" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C110" t="b" s="6">
         <v>0</v>
@@ -5447,365 +5489,35 @@
       <c r="D110" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E110" s="23"/>
+      <c r="E110" s="24"/>
       <c r="F110" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="G110" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H110" s="21"/>
-      <c r="I110" s="21"/>
-      <c r="J110" s="21"/>
-      <c r="K110" s="21"/>
-      <c r="L110" s="21"/>
-      <c r="M110" s="21"/>
-      <c r="N110" s="21"/>
-      <c r="O110" s="21"/>
-      <c r="P110" s="21"/>
-    </row>
-    <row r="111" ht="13.65" customHeight="1">
-      <c r="A111" t="s" s="28">
-        <v>167</v>
-      </c>
-      <c r="B111" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="C111" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D111" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="E111" s="23"/>
-      <c r="F111" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G111" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H111" s="21"/>
-      <c r="I111" s="21"/>
-      <c r="J111" s="21"/>
-      <c r="K111" s="21"/>
-      <c r="L111" s="21"/>
-      <c r="M111" s="21"/>
-      <c r="N111" s="21"/>
-      <c r="O111" s="21"/>
-      <c r="P111" s="21"/>
-    </row>
-    <row r="112" ht="13.65" customHeight="1">
-      <c r="A112" t="s" s="28">
-        <v>168</v>
-      </c>
-      <c r="B112" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="C112" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D112" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="E112" s="23"/>
-      <c r="F112" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G112" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H112" s="21"/>
-      <c r="I112" s="21"/>
-      <c r="J112" s="21"/>
-      <c r="K112" s="21"/>
-      <c r="L112" s="21"/>
-      <c r="M112" s="21"/>
-      <c r="N112" s="21"/>
-      <c r="O112" s="21"/>
-      <c r="P112" s="21"/>
-    </row>
-    <row r="113" ht="13.65" customHeight="1">
-      <c r="A113" t="s" s="28">
-        <v>169</v>
-      </c>
-      <c r="B113" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="C113" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D113" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="E113" s="23"/>
-      <c r="F113" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G113" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H113" s="21"/>
-      <c r="I113" s="21"/>
-      <c r="J113" s="21"/>
-      <c r="K113" s="21"/>
-      <c r="L113" s="21"/>
-      <c r="M113" s="21"/>
-      <c r="N113" s="21"/>
-      <c r="O113" s="21"/>
-      <c r="P113" s="21"/>
-    </row>
-    <row r="114" ht="13.65" customHeight="1">
-      <c r="A114" t="s" s="28">
-        <v>170</v>
-      </c>
-      <c r="B114" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="C114" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D114" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="E114" s="23"/>
-      <c r="F114" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G114" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H114" s="21"/>
-      <c r="I114" s="21"/>
-      <c r="J114" s="21"/>
-      <c r="K114" s="21"/>
-      <c r="L114" s="21"/>
-      <c r="M114" s="21"/>
-      <c r="N114" s="21"/>
-      <c r="O114" s="21"/>
-      <c r="P114" s="21"/>
-    </row>
-    <row r="115" ht="13.65" customHeight="1">
-      <c r="A115" t="s" s="28">
-        <v>171</v>
-      </c>
-      <c r="B115" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="C115" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D115" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="E115" s="23"/>
-      <c r="F115" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G115" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H115" s="21"/>
-      <c r="I115" s="21"/>
-      <c r="J115" s="21"/>
-      <c r="K115" s="21"/>
-      <c r="L115" s="21"/>
-      <c r="M115" s="21"/>
-      <c r="N115" s="21"/>
-      <c r="O115" s="21"/>
-      <c r="P115" s="21"/>
-    </row>
-    <row r="116" ht="13.65" customHeight="1">
-      <c r="A116" t="s" s="28">
-        <v>172</v>
-      </c>
-      <c r="B116" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="C116" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D116" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="E116" s="23"/>
-      <c r="F116" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G116" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H116" s="21"/>
-      <c r="I116" s="21"/>
-      <c r="J116" s="21"/>
-      <c r="K116" s="21"/>
-      <c r="L116" s="21"/>
-      <c r="M116" s="21"/>
-      <c r="N116" s="21"/>
-      <c r="O116" s="21"/>
-      <c r="P116" s="21"/>
-    </row>
-    <row r="117" ht="13.65" customHeight="1">
-      <c r="A117" t="s" s="28">
-        <v>173</v>
-      </c>
-      <c r="B117" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="C117" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D117" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="E117" s="23"/>
-      <c r="F117" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G117" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H117" s="21"/>
-      <c r="I117" s="21"/>
-      <c r="J117" s="21"/>
-      <c r="K117" s="21"/>
-      <c r="L117" s="21"/>
-      <c r="M117" s="21"/>
-      <c r="N117" s="21"/>
-      <c r="O117" s="21"/>
-      <c r="P117" s="21"/>
-    </row>
-    <row r="118" ht="13.65" customHeight="1">
-      <c r="A118" t="s" s="28">
-        <v>174</v>
-      </c>
-      <c r="B118" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="C118" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D118" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="E118" s="23"/>
-      <c r="F118" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G118" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H118" s="21"/>
-      <c r="I118" s="21"/>
-      <c r="J118" s="21"/>
-      <c r="K118" s="21"/>
-      <c r="L118" s="21"/>
-      <c r="M118" s="21"/>
-      <c r="N118" s="21"/>
-      <c r="O118" s="21"/>
-      <c r="P118" s="21"/>
-    </row>
-    <row r="119" ht="13.65" customHeight="1">
-      <c r="A119" t="s" s="28">
-        <v>168</v>
-      </c>
-      <c r="B119" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="C119" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D119" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="E119" s="23"/>
-      <c r="F119" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G119" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H119" s="21"/>
-      <c r="I119" s="21"/>
-      <c r="J119" s="21"/>
-      <c r="K119" s="21"/>
-      <c r="L119" s="21"/>
-      <c r="M119" s="21"/>
-      <c r="N119" s="21"/>
-      <c r="O119" s="21"/>
-      <c r="P119" s="21"/>
-    </row>
-    <row r="120" ht="13.65" customHeight="1">
-      <c r="A120" t="s" s="28">
-        <v>175</v>
-      </c>
-      <c r="B120" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="C120" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D120" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="E120" s="23"/>
-      <c r="F120" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G120" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H120" s="21"/>
-      <c r="I120" s="21"/>
-      <c r="J120" s="21"/>
-      <c r="K120" s="21"/>
-      <c r="L120" s="21"/>
-      <c r="M120" s="21"/>
-      <c r="N120" s="21"/>
-      <c r="O120" s="21"/>
-      <c r="P120" s="21"/>
-    </row>
-    <row r="121" ht="13.65" customHeight="1">
-      <c r="A121" t="s" s="28">
-        <v>176</v>
-      </c>
-      <c r="B121" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="C121" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D121" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="E121" s="23"/>
-      <c r="F121" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G121" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H121" s="21"/>
-      <c r="I121" s="21"/>
-      <c r="J121" s="21"/>
-      <c r="K121" s="21"/>
-      <c r="L121" s="21"/>
-      <c r="M121" s="21"/>
-      <c r="N121" s="21"/>
-      <c r="O121" s="21"/>
-      <c r="P121" s="21"/>
+      <c r="G110" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="22"/>
+      <c r="M110" s="22"/>
+      <c r="N110" s="22"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="22"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D17 F2:F121 D18 C19:D121">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D17 F2:F110 D18:D20 C21:D110">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3 G5:G16">
       <formula1>"string,float,integer,date,coordinates (lat,long),coordinates (geoJSON),coordinates (WKT)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G32">
       <formula1>"string,float,integer,date,coordinates (lat,long),coordinates (geoJSON),coordinates (WKT),boolean"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17:G29 G31:G121">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17:G31 G33:G110">
       <formula1>"string,float,integer,date,coordinates (lat,long),coordinates (geoJSON),coordinates (WKT),boolean"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5815,7 +5527,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Data Mapping</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>